--- a/underlying_hpo_struct.xlsx
+++ b/underlying_hpo_struct.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="266">
   <si>
     <t>Pre/Perinatal History</t>
   </si>
@@ -70,160 +70,211 @@
     <t>Absent speech</t>
   </si>
   <si>
+    <t>Abnormal brainstem morphology</t>
+  </si>
+  <si>
+    <t>Abnormality of the nervous system</t>
+  </si>
+  <si>
+    <t>Abnormal facial shape</t>
+  </si>
+  <si>
+    <t>Anophthalmia</t>
+  </si>
+  <si>
+    <t>Conductive hearing impairment</t>
+  </si>
+  <si>
+    <t>Asthma</t>
+  </si>
+  <si>
+    <t>Abnormal heart morphology</t>
+  </si>
+  <si>
+    <t>Constipation</t>
+  </si>
+  <si>
+    <t>Ambiguous genitalia</t>
+  </si>
+  <si>
+    <t>Abnormal blistering of the skin</t>
+  </si>
+  <si>
+    <t>Abnormal form of the vertebral bodies</t>
+  </si>
+  <si>
+    <t>Abnormality of mitochondrial metabolism</t>
+  </si>
+  <si>
+    <t>Arterial dissection</t>
+  </si>
+  <si>
+    <t>Delayed puberty</t>
+  </si>
+  <si>
+    <t>Allergic rhinitis</t>
+  </si>
+  <si>
+    <t>Cystic hygroma</t>
+  </si>
+  <si>
+    <t>Aggressive behavior</t>
+  </si>
+  <si>
+    <t>Abnormal corpus callosum morphology</t>
+  </si>
+  <si>
+    <t>Ataxia</t>
+  </si>
+  <si>
+    <t>Brachycephaly</t>
+  </si>
+  <si>
+    <t>Cataract</t>
+  </si>
+  <si>
+    <t>High-frequency hearing impairment</t>
+  </si>
+  <si>
+    <t>Bronchiectasis</t>
+  </si>
+  <si>
+    <t>Amyloidosis</t>
+  </si>
+  <si>
+    <t>Diarrhea</t>
+  </si>
+  <si>
+    <t>Cryptorchidism</t>
+  </si>
+  <si>
+    <t>Abnormality of the nail</t>
+  </si>
+  <si>
+    <t>Abnormality of connective tissue</t>
+  </si>
+  <si>
+    <t>Elevated circulating creatine kinase concentration</t>
+  </si>
+  <si>
+    <t>Arterial tortuosity</t>
+  </si>
+  <si>
+    <t>Diabetes insipidus</t>
+  </si>
+  <si>
+    <t>Anemia</t>
+  </si>
+  <si>
+    <t>Encephalocele</t>
+  </si>
+  <si>
+    <t>Anxiety</t>
+  </si>
+  <si>
     <t>Abnormal myelination</t>
   </si>
   <si>
-    <t>Abnormality of the nervous system</t>
-  </si>
-  <si>
-    <t>Brachycephaly</t>
-  </si>
-  <si>
-    <t>Anophthalmia</t>
-  </si>
-  <si>
-    <t>Conductive hearing impairment</t>
-  </si>
-  <si>
-    <t>Asthma</t>
-  </si>
-  <si>
-    <t>Abnormal heart morphology</t>
-  </si>
-  <si>
-    <t>Constipation</t>
-  </si>
-  <si>
-    <t>Ambiguous genitalia</t>
-  </si>
-  <si>
-    <t>Abnormal blistering of the skin</t>
-  </si>
-  <si>
-    <t>Abnormality of connective tissue</t>
-  </si>
-  <si>
-    <t>Abnormal activity of mitochondrial respiratory chain</t>
-  </si>
-  <si>
-    <t>Aneurysm</t>
-  </si>
-  <si>
-    <t>Delayed puberty</t>
-  </si>
-  <si>
-    <t>Allergic rhinitis</t>
-  </si>
-  <si>
-    <t>Cystic hygroma</t>
-  </si>
-  <si>
-    <t>Aggressive behavior</t>
+    <t>Cerebral palsy</t>
+  </si>
+  <si>
+    <t>Cleft lip</t>
+  </si>
+  <si>
+    <t>Coloboma</t>
+  </si>
+  <si>
+    <t>Low-frequency hearing loss</t>
+  </si>
+  <si>
+    <t>Hyperventilation</t>
+  </si>
+  <si>
+    <t>Aortic root aneurysm</t>
+  </si>
+  <si>
+    <t>Duodenal stenosis</t>
+  </si>
+  <si>
+    <t>Cystic renal dysplasia</t>
+  </si>
+  <si>
+    <t>Alopecia</t>
+  </si>
+  <si>
+    <t>Abnormal rib morphology</t>
+  </si>
+  <si>
+    <t>Elevated hepatic transaminase</t>
+  </si>
+  <si>
+    <t>Arteriovenous malformation</t>
+  </si>
+  <si>
+    <t>Diabetes mellitus</t>
+  </si>
+  <si>
+    <t>Immunodeficiency</t>
+  </si>
+  <si>
+    <t>Growth delay</t>
+  </si>
+  <si>
+    <t>Autistic behavior</t>
   </si>
   <si>
     <t>Abnormality of the basal ganglia</t>
   </si>
   <si>
-    <t>Ataxia</t>
-  </si>
-  <si>
-    <t>Cleft lip</t>
-  </si>
-  <si>
-    <t>Cataracts</t>
-  </si>
-  <si>
-    <t>High-frequency hearing impairment</t>
-  </si>
-  <si>
-    <t>Bronchiectasis</t>
-  </si>
-  <si>
-    <t>Amyloidosis</t>
-  </si>
-  <si>
-    <t>Diarrhea</t>
-  </si>
-  <si>
-    <t>Cryptorchidism</t>
-  </si>
-  <si>
-    <t>Abnormality of the nail</t>
-  </si>
-  <si>
-    <t>Abnormal form of the vertebral bodies</t>
-  </si>
-  <si>
-    <t>Abnormality of mitochondrial metabolism</t>
-  </si>
-  <si>
-    <t>Arterial calcification</t>
-  </si>
-  <si>
-    <t>Diabetes insipidus</t>
-  </si>
-  <si>
-    <t>Anemia</t>
-  </si>
-  <si>
-    <t>Encephalocele</t>
-  </si>
-  <si>
-    <t>Anxiety</t>
-  </si>
-  <si>
-    <t>Abnormality of the brainstem</t>
-  </si>
-  <si>
-    <t>Cerebral palsy</t>
+    <t>Cerebral visual impairment</t>
   </si>
   <si>
     <t>Cleft palate</t>
   </si>
   <si>
-    <t>Coloboma</t>
-  </si>
-  <si>
-    <t>Low-frequency hearing loss</t>
-  </si>
-  <si>
-    <t>Hyperventilation</t>
-  </si>
-  <si>
-    <t>Aortic root aneurysm</t>
-  </si>
-  <si>
-    <t>Duodenal stenosis/atresia</t>
-  </si>
-  <si>
-    <t>Cystic renal dysplasia</t>
-  </si>
-  <si>
-    <t>Alopecia</t>
-  </si>
-  <si>
-    <t>Abnormality of the ribs</t>
-  </si>
-  <si>
-    <t>Elevated circulating creatine kinase concentration</t>
-  </si>
-  <si>
-    <t>Arterial dissection</t>
-  </si>
-  <si>
-    <t>Diabetes mellitus</t>
-  </si>
-  <si>
-    <t>Immunodeficiency</t>
-  </si>
-  <si>
-    <t>Growth delay</t>
-  </si>
-  <si>
-    <t>Autistic behavior</t>
-  </si>
-  <si>
-    <t>Abnormality of the periventricular white matter</t>
+    <t>Corneal opacity</t>
+  </si>
+  <si>
+    <t>Mild hearing impairment</t>
+  </si>
+  <si>
+    <t>Hypoventilation</t>
+  </si>
+  <si>
+    <t>Arrhythmia</t>
+  </si>
+  <si>
+    <t>Failure to thrive</t>
+  </si>
+  <si>
+    <t>Horseshoe kidney</t>
+  </si>
+  <si>
+    <t>Anhidrosis</t>
+  </si>
+  <si>
+    <t>Arachnodactyly</t>
+  </si>
+  <si>
+    <t>Elevated plasma branched chain amino acids</t>
+  </si>
+  <si>
+    <t>Epistaxis</t>
+  </si>
+  <si>
+    <t>Hyperthyroidism</t>
+  </si>
+  <si>
+    <t>Neutropenia</t>
+  </si>
+  <si>
+    <t>Increased nuchal translucency</t>
+  </si>
+  <si>
+    <t>Cognitive impairment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abnormal periventricular white matter morphology </t>
   </si>
   <si>
     <t>Chorea</t>
@@ -232,112 +283,61 @@
     <t>Coarse facial features</t>
   </si>
   <si>
-    <t>Corneal opacity</t>
-  </si>
-  <si>
-    <t>Mid-frequency hearing loss</t>
-  </si>
-  <si>
-    <t>Hypoventilation</t>
-  </si>
-  <si>
-    <t>Arrhythmia</t>
-  </si>
-  <si>
-    <t>Failure to thrive</t>
-  </si>
-  <si>
-    <t>Horseshoe kidney</t>
-  </si>
-  <si>
-    <t>Anhidrosis</t>
-  </si>
-  <si>
-    <t>Arachnodactyly</t>
-  </si>
-  <si>
-    <t>Elevated hepatic transaminase</t>
-  </si>
-  <si>
-    <t>Arterial tortuosity</t>
-  </si>
-  <si>
-    <t>Hyperthyroidism</t>
-  </si>
-  <si>
-    <t>Neutropenia</t>
-  </si>
-  <si>
-    <t>Increased nuchal translucency</t>
-  </si>
-  <si>
-    <t>Cognitive impairment</t>
-  </si>
-  <si>
-    <t>Abnormality of the corpus callosum</t>
-  </si>
-  <si>
-    <t>Cortical visual impairment</t>
+    <t>Ectopia lentis</t>
+  </si>
+  <si>
+    <t>Sensorineural hearing impairment</t>
+  </si>
+  <si>
+    <t>Pneumothorax</t>
+  </si>
+  <si>
+    <t>Atrial septal defect</t>
+  </si>
+  <si>
+    <t>Feeding difficulties</t>
+  </si>
+  <si>
+    <t>Hydronephrosis</t>
+  </si>
+  <si>
+    <t>Cafe-au-lait spot</t>
+  </si>
+  <si>
+    <t>Arthralgia</t>
+  </si>
+  <si>
+    <t>Hyperammonemia</t>
+  </si>
+  <si>
+    <t>Lymphedema</t>
+  </si>
+  <si>
+    <t>Hypophosphatemia</t>
+  </si>
+  <si>
+    <t>Pancytopenia</t>
+  </si>
+  <si>
+    <t>Intrauterine growth retardation</t>
+  </si>
+  <si>
+    <t>Delayed speech and language development</t>
+  </si>
+  <si>
+    <t>Aplasia/Hypoplasia of the cerebellar vermis</t>
+  </si>
+  <si>
+    <t>Dementia</t>
   </si>
   <si>
     <t>Craniosynostosis</t>
   </si>
   <si>
-    <t>Ectopia lentis</t>
-  </si>
-  <si>
-    <t>Mild hearing impairment</t>
-  </si>
-  <si>
-    <t>Pneumothorax</t>
-  </si>
-  <si>
-    <t>Atrial septal defect</t>
-  </si>
-  <si>
-    <t>Feeding difficulties</t>
-  </si>
-  <si>
-    <t>Hydronephrosis</t>
-  </si>
-  <si>
-    <t>Cafe-au-lait macules</t>
-  </si>
-  <si>
-    <t>Arthralgia</t>
-  </si>
-  <si>
-    <t>Elevated plasma branched chain amino acids</t>
-  </si>
-  <si>
-    <t>Arteriovenous malformation</t>
-  </si>
-  <si>
-    <t>Hypophosphatemia</t>
-  </si>
-  <si>
-    <t>Pancytopenia</t>
-  </si>
-  <si>
-    <t>Intrauterine growth retardation</t>
-  </si>
-  <si>
-    <t>Delayed speech and language development</t>
-  </si>
-  <si>
-    <t>Aplasia/Hypoplasia of the cerebellar vermis</t>
-  </si>
-  <si>
-    <t>Dementia</t>
-  </si>
-  <si>
-    <t>Dysmorphic facial features</t>
-  </si>
-  <si>
     <t>External ophthalmoplegia</t>
   </si>
   <si>
-    <t>Moderate hearing impairment</t>
+    <t>Unilateral deafness</t>
   </si>
   <si>
     <t>Pulmonary fibrosis</t>
@@ -358,10 +358,10 @@
     <t>Bruising susceptibility</t>
   </si>
   <si>
-    <t>Hyperammonemia</t>
-  </si>
-  <si>
-    <t>Epistaxis</t>
+    <t>Hyperglycemia</t>
+  </si>
+  <si>
+    <t>Pulmonary arterial hypertension</t>
   </si>
   <si>
     <t>Hypothyroidism</t>
@@ -388,9 +388,6 @@
     <t>Microphthalmia</t>
   </si>
   <si>
-    <t>Sensorineural hearing impairment</t>
-  </si>
-  <si>
     <t>Respiratory insufficiency</t>
   </si>
   <si>
@@ -409,10 +406,10 @@
     <t>Clinodactyly</t>
   </si>
   <si>
-    <t>Hyperglycemia</t>
-  </si>
-  <si>
-    <t>Lymphedema</t>
+    <t>Hypoammonemia</t>
+  </si>
+  <si>
+    <t>Pulmonary venous hypertension</t>
   </si>
   <si>
     <t>Maturity-onset diabetes of the young</t>
@@ -424,7 +421,7 @@
     <t>Oligohydramnios</t>
   </si>
   <si>
-    <t>Arnold-Chiari malformation</t>
+    <t>Cerebellar atrophy</t>
   </si>
   <si>
     <t>Dyskinesia</t>
@@ -436,13 +433,10 @@
     <t>Myopia</t>
   </si>
   <si>
-    <t>Severe hearing impairment</t>
-  </si>
-  <si>
     <t>Coarctation of aorta</t>
   </si>
   <si>
-    <t>Inflammatory bowel disease</t>
+    <t>Inflammation of the large intestine</t>
   </si>
   <si>
     <t>Micropenis</t>
@@ -454,10 +448,10 @@
     <t>Decreased muscle mass</t>
   </si>
   <si>
-    <t>Hypoammonemia</t>
-  </si>
-  <si>
-    <t>Pulmonary arterial hypertension</t>
+    <t>Hypoglycemia</t>
+  </si>
+  <si>
+    <t>Stroke</t>
   </si>
   <si>
     <t>Rickets</t>
@@ -469,7 +463,7 @@
     <t>Dyscalculia</t>
   </si>
   <si>
-    <t>Cerebellar atrophy</t>
+    <t>Holoprosencephaly</t>
   </si>
   <si>
     <t>Dysphasia</t>
@@ -481,9 +475,6 @@
     <t>Nystagmus</t>
   </si>
   <si>
-    <t>Transient hearing impairment</t>
-  </si>
-  <si>
     <t>Dilated cardiomyopathy</t>
   </si>
   <si>
@@ -499,10 +490,10 @@
     <t>Distal arthrogryposis</t>
   </si>
   <si>
-    <t>Hypoglycemia</t>
-  </si>
-  <si>
-    <t>Pulmonary venous hypertension</t>
+    <t>Increased serum pyruvate</t>
+  </si>
+  <si>
+    <t>Vascular dilatation</t>
   </si>
   <si>
     <t>Polyhydramnios</t>
@@ -511,7 +502,7 @@
     <t>Dyslexia</t>
   </si>
   <si>
-    <t>Holoprosencephaly</t>
+    <t>Hydrocephalus</t>
   </si>
   <si>
     <t>Dystonia</t>
@@ -523,16 +514,13 @@
     <t>Optic atrophy</t>
   </si>
   <si>
-    <t>Unilateral deafness</t>
-  </si>
-  <si>
     <t>Heterotaxy</t>
   </si>
   <si>
     <t>Laryngomalacia</t>
   </si>
   <si>
-    <t>Polycystic kidney disease</t>
+    <t>Polycystic kidney dysplasia</t>
   </si>
   <si>
     <t>Hyperpigmentation of the skin</t>
@@ -541,10 +529,7 @@
     <t>Ectrodactyly</t>
   </si>
   <si>
-    <t>Increased serum pyruvate</t>
-  </si>
-  <si>
-    <t>Stroke</t>
+    <t>Lactic acidosis</t>
   </si>
   <si>
     <t>Premature birth</t>
@@ -553,7 +538,7 @@
     <t>Gait disturbance</t>
   </si>
   <si>
-    <t>Hydrocephalus</t>
+    <t>Leukodystrophy</t>
   </si>
   <si>
     <t>Encephalopathy</t>
@@ -577,7 +562,7 @@
     <t>Exercise intolerance</t>
   </si>
   <si>
-    <t>Lactic acidosis</t>
+    <t>Organic aciduria</t>
   </si>
   <si>
     <t>Prolonged neonatal jaundice</t>
@@ -586,10 +571,10 @@
     <t>Global developmental delay</t>
   </si>
   <si>
-    <t>Leukodystrophy</t>
-  </si>
-  <si>
-    <t>Headaches</t>
+    <t>Lissencephaly</t>
+  </si>
+  <si>
+    <t>Headache</t>
   </si>
   <si>
     <t>Ptosis</t>
@@ -610,13 +595,10 @@
     <t>Fatigue</t>
   </si>
   <si>
-    <t>Organic aciduria</t>
-  </si>
-  <si>
     <t>Hyperactivity</t>
   </si>
   <si>
-    <t>Lissencephaly</t>
+    <t>Pachygyria</t>
   </si>
   <si>
     <t>Hemiplegia</t>
@@ -640,13 +622,13 @@
     <t>Impaired visuospatial constructive cognition</t>
   </si>
   <si>
-    <t>Pachygyria</t>
+    <t>Periventricular nodular heterotopia</t>
   </si>
   <si>
     <t>Infantile spasms</t>
   </si>
   <si>
-    <t>Retinitis pigmentosa</t>
+    <t>Rod-cone dystrophy</t>
   </si>
   <si>
     <t>Noncompaction cardiomyopathy</t>
@@ -664,7 +646,7 @@
     <t>Incoordination</t>
   </si>
   <si>
-    <t>Periventricular nodular heterotopia</t>
+    <t>Polymicrogyria</t>
   </si>
   <si>
     <t>Migraine</t>
@@ -688,7 +670,7 @@
     <t>Intellectual disability, borderline</t>
   </si>
   <si>
-    <t>Polymicrogyria</t>
+    <t>Ventriculomegaly</t>
   </si>
   <si>
     <t>Myoclonus</t>
@@ -700,57 +682,54 @@
     <t>Vomiting</t>
   </si>
   <si>
+    <t>Soft skin</t>
+  </si>
+  <si>
+    <t>Joint hypermobility</t>
+  </si>
+  <si>
+    <t>Intellectual disability, mild</t>
+  </si>
+  <si>
+    <t>Parkinsonism</t>
+  </si>
+  <si>
+    <t>Prolonged QT interval</t>
+  </si>
+  <si>
     <t>Sparse hair</t>
   </si>
   <si>
-    <t>Joint hypermobility</t>
-  </si>
-  <si>
-    <t>Intellectual disability, mild</t>
-  </si>
-  <si>
-    <t>Ventriculomegaly</t>
-  </si>
-  <si>
-    <t>Parkinsonism</t>
-  </si>
-  <si>
-    <t>Prolonged QT interval</t>
+    <t>Muscle weakness</t>
+  </si>
+  <si>
+    <t>Intellectual disability, moderate</t>
+  </si>
+  <si>
+    <t>Peripheral neuropathy</t>
+  </si>
+  <si>
+    <t>Sudden death</t>
   </si>
   <si>
     <t>Telangiectasia</t>
   </si>
   <si>
-    <t>Muscle weakness</t>
-  </si>
-  <si>
-    <t>Intellectual disability, moderate</t>
-  </si>
-  <si>
-    <t>Peripheral neuropathy</t>
-  </si>
-  <si>
-    <t>Sudden death</t>
+    <t>Myalgia</t>
+  </si>
+  <si>
+    <t>Intellectual disability, profound</t>
+  </si>
+  <si>
+    <t>Seizure</t>
+  </si>
+  <si>
+    <t>Tetralogy of Fallot</t>
   </si>
   <si>
     <t>Vascular skin abnormality</t>
   </si>
   <si>
-    <t>Myalgia</t>
-  </si>
-  <si>
-    <t>Intellectual disability, profound</t>
-  </si>
-  <si>
-    <t>Seizures</t>
-  </si>
-  <si>
-    <t>Tetralogy of Fallot</t>
-  </si>
-  <si>
-    <t>Velvety skin</t>
-  </si>
-  <si>
     <t>Myopathic facies</t>
   </si>
   <si>
@@ -790,7 +769,7 @@
     <t>Motor stereotypy</t>
   </si>
   <si>
-    <t>Tremors</t>
+    <t>Tremor</t>
   </si>
   <si>
     <t>Pain</t>
@@ -1088,14 +1067,14 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="29.25"/>
     <col customWidth="1" min="2" max="2" width="33.0"/>
-    <col customWidth="1" min="3" max="3" width="34.75"/>
+    <col customWidth="1" min="3" max="3" width="39.0"/>
     <col customWidth="1" min="4" max="4" width="26.5"/>
     <col customWidth="1" min="5" max="5" width="20.13"/>
     <col customWidth="1" min="6" max="6" width="33.63"/>
     <col customWidth="1" min="7" max="7" width="26.75"/>
     <col customWidth="1" min="8" max="8" width="19.25"/>
     <col customWidth="1" min="9" max="9" width="24.38"/>
-    <col customWidth="1" min="10" max="10" width="21.25"/>
+    <col customWidth="1" min="10" max="10" width="27.13"/>
     <col customWidth="1" min="11" max="11" width="20.38"/>
     <col customWidth="1" min="12" max="13" width="28.63"/>
     <col customWidth="1" min="14" max="14" width="38.13"/>
@@ -1494,504 +1473,483 @@
       <c r="F8" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="O8" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="P8" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>122</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="N9" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="O9" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="P9" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="N10" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="O10" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="L11" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="N11" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="L12" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="M12" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="N12" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="K13" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="L13" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="M13" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="L14" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="M14" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="L15" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="M15" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="L16" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="M16" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="M17" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" s="1" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" s="1" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" s="1" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" s="1" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" s="1" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" s="1" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
     <row r="26">
       <c r="M26" s="1" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27">
       <c r="M27" s="1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
     <row r="28">
       <c r="M28" s="1" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="29">
       <c r="M29" s="1" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="30">
       <c r="M30" s="1" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="31">
       <c r="M31" s="1" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
     <row r="32">
       <c r="M32" s="1" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="33">
       <c r="M33" s="1" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
     </row>
     <row r="34">
       <c r="M34" s="1" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>

--- a/underlying_hpo_struct.xlsx
+++ b/underlying_hpo_struct.xlsx
@@ -274,7 +274,7 @@
     <t>Cognitive impairment</t>
   </si>
   <si>
-    <t xml:space="preserve">Abnormal periventricular white matter morphology </t>
+    <t>Abnormal periventricular white matter morphology</t>
   </si>
   <si>
     <t>Chorea</t>

--- a/underlying_hpo_struct.xlsx
+++ b/underlying_hpo_struct.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aryanafar/Desktop/Fabric/V2 Checklist/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E67D674-1572-BC4F-87F8-8B9E4F58D546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -1054,9 +1063,6 @@
     <t>Folliculitis</t>
   </si>
   <si>
-    <t>Low APGAR Score</t>
-  </si>
-  <si>
     <t>Dyslexia</t>
   </si>
   <si>
@@ -2165,25 +2171,30 @@
   </si>
   <si>
     <t>Vitreoretinopathy</t>
+  </si>
+  <si>
+    <t>Low APGAR score</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -2193,7 +2204,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2203,39 +2214,44 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -2425,48 +2441,51 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AA54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="29.25"/>
-    <col customWidth="1" min="2" max="2" width="33.0"/>
-    <col customWidth="1" min="3" max="3" width="39.0"/>
-    <col customWidth="1" min="4" max="4" width="34.63"/>
-    <col customWidth="1" min="5" max="5" width="24.13"/>
-    <col customWidth="1" min="6" max="6" width="33.63"/>
-    <col customWidth="1" min="7" max="7" width="29.25"/>
-    <col customWidth="1" min="8" max="8" width="26.75"/>
-    <col customWidth="1" min="9" max="10" width="31.25"/>
-    <col customWidth="1" min="11" max="12" width="32.0"/>
-    <col customWidth="1" min="13" max="13" width="27.13"/>
-    <col customWidth="1" min="14" max="14" width="24.63"/>
-    <col customWidth="1" min="15" max="15" width="23.75"/>
-    <col customWidth="1" min="16" max="16" width="37.63"/>
-    <col customWidth="1" min="17" max="18" width="28.63"/>
-    <col customWidth="1" min="19" max="19" width="36.25"/>
-    <col customWidth="1" min="20" max="21" width="28.63"/>
-    <col customWidth="1" min="22" max="22" width="37.0"/>
-    <col customWidth="1" min="23" max="23" width="30.38"/>
-    <col customWidth="1" min="24" max="24" width="38.13"/>
-    <col customWidth="1" min="25" max="25" width="42.75"/>
-    <col customWidth="1" min="26" max="26" width="28.5"/>
-    <col customWidth="1" min="27" max="27" width="39.5"/>
+    <col min="1" max="1" width="29.1640625" customWidth="1"/>
+    <col min="2" max="2" width="33" customWidth="1"/>
+    <col min="3" max="3" width="39" customWidth="1"/>
+    <col min="4" max="4" width="34.6640625" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" customWidth="1"/>
+    <col min="6" max="6" width="33.6640625" customWidth="1"/>
+    <col min="7" max="7" width="29.1640625" customWidth="1"/>
+    <col min="8" max="8" width="26.6640625" customWidth="1"/>
+    <col min="9" max="10" width="31.1640625" customWidth="1"/>
+    <col min="11" max="12" width="32" customWidth="1"/>
+    <col min="13" max="13" width="27.1640625" customWidth="1"/>
+    <col min="14" max="14" width="24.6640625" customWidth="1"/>
+    <col min="15" max="15" width="23.6640625" customWidth="1"/>
+    <col min="16" max="16" width="37.6640625" customWidth="1"/>
+    <col min="17" max="18" width="28.6640625" customWidth="1"/>
+    <col min="19" max="19" width="36.1640625" customWidth="1"/>
+    <col min="20" max="21" width="28.6640625" customWidth="1"/>
+    <col min="22" max="22" width="37" customWidth="1"/>
+    <col min="23" max="23" width="30.33203125" customWidth="1"/>
+    <col min="24" max="24" width="38.1640625" customWidth="1"/>
+    <col min="25" max="25" width="42.6640625" customWidth="1"/>
+    <col min="26" max="26" width="28.5" customWidth="1"/>
+    <col min="27" max="27" width="39.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2549,7 +2568,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
@@ -2632,7 +2651,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>54</v>
       </c>
@@ -2715,7 +2734,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>81</v>
       </c>
@@ -2798,7 +2817,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>108</v>
       </c>
@@ -2881,7 +2900,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>61</v>
       </c>
@@ -2964,7 +2983,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>161</v>
       </c>
@@ -3047,7 +3066,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>188</v>
       </c>
@@ -3130,7 +3149,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>215</v>
       </c>
@@ -3213,7 +3232,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>242</v>
       </c>
@@ -3296,7 +3315,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>268</v>
       </c>
@@ -3379,7 +3398,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>294</v>
       </c>
@@ -3462,7 +3481,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>320</v>
       </c>
@@ -3545,1285 +3564,1285 @@
         <v>346</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="H14" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="K14" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="L14" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="M14" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="N14" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="N14" s="1" t="s">
+      <c r="O14" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="O14" s="1" t="s">
+      <c r="P14" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="Q14" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="Q14" s="1" t="s">
+      <c r="R14" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="S14" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="S14" s="1" t="s">
+      <c r="T14" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="T14" s="1" t="s">
+      <c r="U14" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="U14" s="1" t="s">
+      <c r="V14" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="V14" s="1" t="s">
+      <c r="W14" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="W14" s="1" t="s">
+      <c r="X14" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="X14" s="1" t="s">
+      <c r="Y14" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="Y14" s="2" t="s">
+      <c r="Z14" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="Z14" s="1" t="s">
+      <c r="AA14" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="AA14" s="1" t="s">
+    </row>
+    <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="H15" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="J15" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="K15" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>383</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>280</v>
       </c>
       <c r="M15" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="N15" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="N15" s="1" t="s">
+      <c r="O15" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="O15" s="1" t="s">
+      <c r="P15" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="P15" s="3" t="s">
+      <c r="Q15" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="Q15" s="1" t="s">
+      <c r="R15" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="R15" s="3" t="s">
+      <c r="S15" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="S15" s="1" t="s">
+      <c r="T15" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="T15" s="1" t="s">
+      <c r="U15" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="U15" s="1" t="s">
+      <c r="V15" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="V15" s="1" t="s">
+      <c r="W15" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="W15" s="1" t="s">
+      <c r="X15" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="X15" s="1" t="s">
+      <c r="Y15" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="Y15" s="2" t="s">
+      <c r="Z15" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="Z15" s="1" t="s">
+      <c r="AA15" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="AA15" s="1" t="s">
+    </row>
+    <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>403</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>404</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="K16" s="2" t="s">
         <v>406</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>407</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>282</v>
       </c>
       <c r="M16" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="N16" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="P16" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="P16" s="3" t="s">
+      <c r="Q16" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="Q16" s="1" t="s">
+      <c r="R16" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="R16" s="3" t="s">
+      <c r="S16" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="S16" s="1" t="s">
+      <c r="T16" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="T16" s="1" t="s">
+      <c r="U16" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="U16" s="1" t="s">
+      <c r="V16" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="V16" s="1" t="s">
+      <c r="W16" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="W16" s="1" t="s">
+      <c r="X16" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="X16" s="1" t="s">
+      <c r="Y16" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="Y16" s="2" t="s">
+      <c r="Z16" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="Z16" s="1" t="s">
+      <c r="AA16" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="AA16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>426</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>427</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="K17" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="L17" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="M17" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="N17" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="N17" s="2" t="s">
+      <c r="P17" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="P17" s="3" t="s">
+      <c r="Q17" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="Q17" s="2" t="s">
+      <c r="R17" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="R17" s="3" t="s">
+      <c r="S17" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="S17" s="1" t="s">
+      <c r="T17" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="T17" s="1" t="s">
+      <c r="U17" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="U17" s="1" t="s">
+      <c r="V17" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="V17" s="1" t="s">
+      <c r="W17" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="W17" s="1" t="s">
+      <c r="X17" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="X17" s="1" t="s">
+      <c r="Y17" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="Y17" s="2" t="s">
+      <c r="Z17" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="Z17" s="1" t="s">
+      <c r="AA17" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="AA17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>446</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>447</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>161</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="2" t="s">
         <v>449</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>450</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="K18" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="L18" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="M18" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="N18" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="P18" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="P18" s="1" t="s">
+      <c r="Q18" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="Q18" s="1" t="s">
+      <c r="R18" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="R18" s="3" t="s">
+      <c r="S18" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="S18" s="1" t="s">
+      <c r="T18" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="T18" s="1" t="s">
+      <c r="U18" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="U18" s="1" t="s">
+      <c r="V18" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="V18" s="1" t="s">
+      <c r="W18" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="W18" s="1" t="s">
+      <c r="X18" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="X18" s="2" t="s">
+      <c r="Y18" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="Y18" s="1" t="s">
+      <c r="Z18" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="Z18" s="1" t="s">
+      <c r="AA18" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="AA18" s="1" t="s">
+    </row>
+    <row r="19" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="I19" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="J19" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="K19" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="L19" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="M19" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="M19" s="2" t="s">
+      <c r="N19" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="N19" s="1" t="s">
+      <c r="P19" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="P19" s="3" t="s">
+      <c r="Q19" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="Q19" s="2" t="s">
+      <c r="R19" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="R19" s="1" t="s">
+      <c r="S19" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="S19" s="1" t="s">
+      <c r="T19" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="T19" s="1" t="s">
+      <c r="U19" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="U19" s="1" t="s">
+      <c r="V19" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="V19" s="1" t="s">
+      <c r="W19" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="W19" s="1" t="s">
+      <c r="X19" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="X19" s="1" t="s">
+      <c r="Y19" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="Y19" s="1" t="s">
+      <c r="Z19" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="Z19" s="1" t="s">
+      <c r="AA19" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="AA19" s="1" t="s">
+    </row>
+    <row r="20" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="I20" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="J20" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="K20" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="L20" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="M20" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="M20" s="2" t="s">
+      <c r="N20" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="N20" s="1" t="s">
+      <c r="P20" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="P20" s="1" t="s">
+      <c r="Q20" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="Q20" s="1" t="s">
+      <c r="R20" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="R20" s="3" t="s">
+      <c r="S20" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="S20" s="1" t="s">
+      <c r="T20" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="T20" s="1" t="s">
+      <c r="U20" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="U20" s="1" t="s">
+      <c r="V20" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="V20" s="1" t="s">
+      <c r="W20" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="W20" s="1" t="s">
+      <c r="X20" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="X20" s="1" t="s">
+      <c r="Z20" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="Z20" s="1" t="s">
+      <c r="AA20" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="AA20" s="1" t="s">
+    </row>
+    <row r="21" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="E21" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="J21" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="K21" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="L21" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="L21" s="1" t="s">
+      <c r="M21" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="M21" s="2" t="s">
+      <c r="N21" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="N21" s="1" t="s">
+      <c r="P21" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="P21" s="1" t="s">
+      <c r="Q21" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="Q21" s="1" t="s">
+      <c r="R21" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="R21" s="3" t="s">
+      <c r="S21" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="S21" s="1" t="s">
+      <c r="T21" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="T21" s="1" t="s">
+      <c r="U21" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="U21" s="1" t="s">
+      <c r="V21" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="V21" s="1" t="s">
+      <c r="W21" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="W21" s="1" t="s">
+      <c r="X21" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="X21" s="2" t="s">
+      <c r="Z21" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="Z21" s="1" t="s">
+      <c r="AA21" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="AA21" s="2" t="s">
+    </row>
+    <row r="22" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="1" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="22">
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="F22" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="I22" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="J22" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="K22" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="L22" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="L22" s="1" t="s">
+      <c r="N22" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="N22" s="1" t="s">
+      <c r="P22" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="P22" s="1" t="s">
+      <c r="Q22" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="Q22" s="1" t="s">
+      <c r="R22" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="R22" s="2" t="s">
+      <c r="S22" s="1" t="s">
         <v>551</v>
-      </c>
-      <c r="S22" s="1" t="s">
-        <v>552</v>
       </c>
       <c r="U22" s="2"/>
       <c r="V22" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="W22" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="W22" s="1" t="s">
+      <c r="X22" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="X22" s="1" t="s">
+      <c r="Z22" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="Z22" s="1" t="s">
+      <c r="AA22" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="AA22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="1" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="E23" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="I23" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="K23" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="L23" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="N23" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="L23" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="N23" s="1" t="s">
+      <c r="P23" s="1" t="s">
         <v>565</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>566</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="S23" s="1" t="s">
         <v>567</v>
-      </c>
-      <c r="S23" s="1" t="s">
-        <v>568</v>
       </c>
       <c r="U23" s="2"/>
       <c r="V23" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="W23" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="W23" s="1" t="s">
+      <c r="X23" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="X23" s="1" t="s">
+      <c r="AA23" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="AA23" s="1" t="s">
+    </row>
+    <row r="24" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="2" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="E24" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="I24" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="K24" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="L24" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="L24" s="2" t="s">
+      <c r="P24" s="1" t="s">
         <v>580</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>581</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="S24" s="1" t="s">
         <v>582</v>
-      </c>
-      <c r="S24" s="1" t="s">
-        <v>583</v>
       </c>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
       <c r="V24" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="W24" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="W24" s="1" t="s">
+      <c r="X24" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="X24" s="1" t="s">
+      <c r="AA24" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="AA24" s="1" t="s">
+    </row>
+    <row r="25" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="1" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="25">
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="I25" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="K25" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="K25" s="1" t="s">
+      <c r="P25" s="1" t="s">
         <v>592</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>593</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="S25" s="1" t="s">
         <v>594</v>
-      </c>
-      <c r="S25" s="1" t="s">
-        <v>595</v>
       </c>
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
       <c r="V25" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="W25" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="W25" s="1" t="s">
+      <c r="X25" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="X25" s="1" t="s">
+      <c r="AA25" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="AA25" s="1" t="s">
+    </row>
+    <row r="26" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C26" s="2" t="s">
         <v>599</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="C26" s="2" t="s">
-        <v>600</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="K26" s="2" t="s">
         <v>602</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>603</v>
       </c>
       <c r="L26" s="1"/>
       <c r="P26" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="S26" s="1" t="s">
         <v>605</v>
-      </c>
-      <c r="S26" s="1" t="s">
-        <v>606</v>
       </c>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
       <c r="V26" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="W26" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="W26" s="1" t="s">
+      <c r="X26" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="X26" s="1" t="s">
+      <c r="AA26" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="AA26" s="1" t="s">
+    </row>
+    <row r="27" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C27" s="2" t="s">
         <v>610</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="C27" s="2" t="s">
-        <v>611</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="K27" s="1" t="s">
         <v>613</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>614</v>
       </c>
       <c r="L27" s="2"/>
       <c r="P27" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="S27" s="1" t="s">
         <v>616</v>
-      </c>
-      <c r="S27" s="1" t="s">
-        <v>617</v>
       </c>
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
       <c r="W27" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="X27" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="X27" s="1" t="s">
+      <c r="AA27" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="AA27" s="1" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="28">
+    </row>
+    <row r="28" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="K28" s="2" t="s">
         <v>623</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>624</v>
       </c>
       <c r="L28" s="1"/>
       <c r="P28" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="Q28" s="1"/>
       <c r="R28" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="S28" s="1" t="s">
         <v>626</v>
-      </c>
-      <c r="S28" s="1" t="s">
-        <v>627</v>
       </c>
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
       <c r="V28" s="2"/>
       <c r="W28" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="X28" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="X28" s="1" t="s">
+      <c r="AA28" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="AA28" s="2" t="s">
+    </row>
+    <row r="29" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C29" s="1" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="29">
-      <c r="C29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="F29" s="2" t="s">
         <v>632</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>633</v>
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="P29" s="3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="Q29" s="1"/>
       <c r="R29" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="S29" s="1" t="s">
         <v>635</v>
-      </c>
-      <c r="S29" s="1" t="s">
-        <v>636</v>
       </c>
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
       <c r="V29" s="2"/>
       <c r="W29" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="X29" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="X29" s="1" t="s">
+      <c r="AA29" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="AA29" s="1" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="30">
+    </row>
+    <row r="30" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="P30" s="3" t="s">
         <v>642</v>
-      </c>
-      <c r="P30" s="3" t="s">
-        <v>643</v>
       </c>
       <c r="Q30" s="1"/>
       <c r="R30" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="S30" s="1" t="s">
         <v>644</v>
-      </c>
-      <c r="S30" s="1" t="s">
-        <v>645</v>
       </c>
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
       <c r="V30" s="2"/>
       <c r="W30" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="X30" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="X30" s="1" t="s">
+      <c r="AA30" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AA30" s="1" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="31">
+    </row>
+    <row r="31" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="F31" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="P31" s="1" t="s">
         <v>651</v>
-      </c>
-      <c r="P31" s="1" t="s">
-        <v>652</v>
       </c>
       <c r="Q31" s="1"/>
       <c r="R31" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="S31" s="1" t="s">
         <v>653</v>
-      </c>
-      <c r="S31" s="1" t="s">
-        <v>654</v>
       </c>
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
       <c r="V31" s="2"/>
       <c r="W31" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="X31" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="X31" s="2" t="s">
+      <c r="AA31" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="AA31" s="1" t="s">
+    </row>
+    <row r="32" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C32" s="2" t="s">
         <v>657</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="C32" s="2" t="s">
-        <v>658</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="P32" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="P32" s="1" t="s">
+      <c r="R32" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="R32" s="1" t="s">
+      <c r="S32" s="1" t="s">
         <v>662</v>
-      </c>
-      <c r="S32" s="1" t="s">
-        <v>663</v>
       </c>
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
       <c r="V32" s="2"/>
       <c r="W32" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="X32" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="X32" s="1" t="s">
+      <c r="AA32" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="AA32" s="1" t="s">
+    </row>
+    <row r="33" spans="3:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C33" s="1" t="s">
         <v>666</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="C33" s="1" t="s">
-        <v>667</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="P33" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="P33" s="1" t="s">
+      <c r="R33" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="R33" s="1" t="s">
+      <c r="S33" s="1" t="s">
         <v>671</v>
-      </c>
-      <c r="S33" s="1" t="s">
-        <v>672</v>
       </c>
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
       <c r="V33" s="2"/>
       <c r="W33" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="X33" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="X33" s="2" t="s">
+      <c r="AA33" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="AA33" s="1" t="s">
+    </row>
+    <row r="34" spans="3:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C34" s="2" t="s">
         <v>675</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="C34" s="2" t="s">
-        <v>676</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="P34" s="3" t="s">
         <v>678</v>
       </c>
-      <c r="P34" s="3" t="s">
+      <c r="R34" s="3" t="s">
         <v>679</v>
       </c>
-      <c r="R34" s="3" t="s">
+      <c r="S34" s="1" t="s">
         <v>680</v>
-      </c>
-      <c r="S34" s="1" t="s">
-        <v>681</v>
       </c>
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
       <c r="V34" s="2"/>
       <c r="W34" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="X34" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="X34" s="1" t="s">
+      <c r="AA34" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="AA34" s="1" t="s">
+    </row>
+    <row r="35" spans="3:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E35" s="1" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="35">
-      <c r="E35" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="P35" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="P35" s="1" t="s">
+      <c r="R35" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="R35" s="3" t="s">
+      <c r="S35" s="1" t="s">
         <v>688</v>
-      </c>
-      <c r="S35" s="1" t="s">
-        <v>689</v>
       </c>
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
       <c r="W35" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="X35" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="X35" s="1" t="s">
+      <c r="AA35" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="AA35" s="1" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="36">
+    </row>
+    <row r="36" spans="3:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D36" s="2"/>
       <c r="E36" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>693</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="R36" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="R36" s="3" t="s">
+      <c r="S36" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="S36" s="1" t="s">
+      <c r="W36" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="W36" s="1" t="s">
+      <c r="X36" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="X36" s="1" t="s">
+      <c r="AA36" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="AA36" s="1" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="37">
+    </row>
+    <row r="37" spans="3:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D37" s="1"/>
       <c r="E37" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="R37" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="R37" s="3" t="s">
+      <c r="S37" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="S37" s="1" t="s">
+      <c r="X37" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="X37" s="1" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="38">
+    </row>
+    <row r="38" spans="3:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D38" s="2"/>
       <c r="E38" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="X38" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="X38" s="2" t="s">
-        <v>707</v>
-      </c>
       <c r="AA38" s="2"/>
     </row>
-    <row r="39">
+    <row r="39" spans="3:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D39" s="1"/>
       <c r="F39" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="X39" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="X39" s="1" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="40">
+    </row>
+    <row r="40" spans="3:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D40" s="2"/>
       <c r="F40" s="2" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="41" spans="3:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F41" s="1" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="41">
-      <c r="F41" s="1" t="s">
+    <row r="42" spans="3:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F42" s="1" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="42">
-      <c r="F42" s="1" t="s">
+    <row r="43" spans="3:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F43" s="2" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="F43" s="2" t="s">
+      <c r="S43" s="1"/>
+    </row>
+    <row r="44" spans="3:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F44" s="2" t="s">
         <v>713</v>
       </c>
-      <c r="S43" s="1"/>
-    </row>
-    <row r="44">
-      <c r="F44" s="2" t="s">
+    </row>
+    <row r="45" spans="3:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F45" s="1" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="45">
-      <c r="F45" s="1" t="s">
+      <c r="S45" s="1"/>
+    </row>
+    <row r="46" spans="3:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F46" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="S45" s="1"/>
-    </row>
-    <row r="46">
-      <c r="F46" s="1" t="s">
+      <c r="S46" s="1"/>
+    </row>
+    <row r="47" spans="3:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F47" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="S46" s="1"/>
-    </row>
-    <row r="47">
-      <c r="F47" s="1" t="s">
-        <v>717</v>
-      </c>
       <c r="S47" s="1"/>
     </row>
-    <row r="48">
+    <row r="48" spans="3:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S48" s="1"/>
     </row>
-    <row r="49">
+    <row r="49" spans="19:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S49" s="1"/>
     </row>
-    <row r="53">
+    <row r="53" spans="19:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S53" s="1"/>
     </row>
-    <row r="54">
+    <row r="54" spans="19:19" ht="13" x14ac:dyDescent="0.15">
       <c r="S54" s="1"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/underlying_hpo_struct.xlsx
+++ b/underlying_hpo_struct.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aryanafar/Desktop/Fabric/V2 Checklist/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E67D674-1572-BC4F-87F8-8B9E4F58D546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C67BEADE-D7E6-3D48-BB4A-136803F21CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="717">
   <si>
     <t>Perinatal History</t>
   </si>
@@ -139,9 +139,6 @@
     <t>Abdominal pain</t>
   </si>
   <si>
-    <t xml:space="preserve">Anal atresia </t>
-  </si>
-  <si>
     <t>Cystic renal dysplasia</t>
   </si>
   <si>
@@ -202,9 +199,6 @@
     <t>Anophthalmia</t>
   </si>
   <si>
-    <t>Cup-shaped ears</t>
-  </si>
-  <si>
     <t>Cystic hygroma</t>
   </si>
   <si>
@@ -376,9 +370,6 @@
     <t>Atrial septal defect</t>
   </si>
   <si>
-    <t xml:space="preserve">Aortic valve stenosis </t>
-  </si>
-  <si>
     <t>Biliary cirrhosis</t>
   </si>
   <si>
@@ -619,9 +610,6 @@
     <t>Atrioventricular block</t>
   </si>
   <si>
-    <t xml:space="preserve">Cholestasis </t>
-  </si>
-  <si>
     <t>Esophageal atresia</t>
   </si>
   <si>
@@ -1177,9 +1165,6 @@
     <t>Proteinuria</t>
   </si>
   <si>
-    <t xml:space="preserve">Uterine prolapse </t>
-  </si>
-  <si>
     <t>Hypohidrosis</t>
   </si>
   <si>
@@ -1366,9 +1351,6 @@
     <t>Peripheral neuropathy</t>
   </si>
   <si>
-    <t xml:space="preserve">Facial asymmetry </t>
-  </si>
-  <si>
     <t>External ophthalmoplegia</t>
   </si>
   <si>
@@ -1387,9 +1369,6 @@
     <t>Rectal prolapse</t>
   </si>
   <si>
-    <t xml:space="preserve">Renal amyloidosis </t>
-  </si>
-  <si>
     <t>Intermittent generalized erythematous papular rash</t>
   </si>
   <si>
@@ -1531,9 +1510,6 @@
     <t>Tracheoesophageal fistula</t>
   </si>
   <si>
-    <t xml:space="preserve">Renal dysplasia </t>
-  </si>
-  <si>
     <t>Keloids</t>
   </si>
   <si>
@@ -1660,12 +1636,6 @@
     <t>Syncope</t>
   </si>
   <si>
-    <t xml:space="preserve">Protuberant abdomen </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ureteropelvic junction obstruction </t>
-  </si>
-  <si>
     <t>Oral mucosal blisters</t>
   </si>
   <si>
@@ -1960,9 +1930,6 @@
     <t>Split hand</t>
   </si>
   <si>
-    <t>Increased serum creatine kinase</t>
-  </si>
-  <si>
     <t>Recurrent pneumonia</t>
   </si>
   <si>
@@ -2065,9 +2032,6 @@
     <t>Type 1 muscle fiber predominance</t>
   </si>
   <si>
-    <t xml:space="preserve">Talipes equinovarus </t>
-  </si>
-  <si>
     <t>Metabolic ketoacidosis</t>
   </si>
   <si>
@@ -2174,6 +2138,39 @@
   </si>
   <si>
     <t>Low APGAR score</t>
+  </si>
+  <si>
+    <t>Facial asymmetry</t>
+  </si>
+  <si>
+    <t>Cupped ear</t>
+  </si>
+  <si>
+    <t>Aortic valve stenosis</t>
+  </si>
+  <si>
+    <t>Cholestasis</t>
+  </si>
+  <si>
+    <t>Protuberant abdomen</t>
+  </si>
+  <si>
+    <t>Anal atresia</t>
+  </si>
+  <si>
+    <t>Renal amyloidosis</t>
+  </si>
+  <si>
+    <t>Renal dysplasia</t>
+  </si>
+  <si>
+    <t>Ureteropelvic junction obstruction</t>
+  </si>
+  <si>
+    <t>Uterine prolapse</t>
+  </si>
+  <si>
+    <t>Talipes equinovarus</t>
   </si>
 </sst>
 </file>
@@ -2453,9 +2450,9 @@
   </sheetPr>
   <dimension ref="A1:AA54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
+      <selection pane="bottomLeft" activeCell="Y33" sqref="Y33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2469,9 +2466,10 @@
     <col min="7" max="7" width="29.1640625" customWidth="1"/>
     <col min="8" max="8" width="26.6640625" customWidth="1"/>
     <col min="9" max="10" width="31.1640625" customWidth="1"/>
-    <col min="11" max="12" width="32" customWidth="1"/>
+    <col min="11" max="11" width="33.5" customWidth="1"/>
+    <col min="12" max="12" width="32" customWidth="1"/>
     <col min="13" max="13" width="27.1640625" customWidth="1"/>
-    <col min="14" max="14" width="24.6640625" customWidth="1"/>
+    <col min="14" max="14" width="26.33203125" customWidth="1"/>
     <col min="15" max="15" width="23.6640625" customWidth="1"/>
     <col min="16" max="16" width="37.6640625" customWidth="1"/>
     <col min="17" max="18" width="28.6640625" customWidth="1"/>
@@ -2606,2227 +2604,2224 @@
         <v>38</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="I3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="J3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="K3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="L3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="P3" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="Q3" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="R3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="S3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="X3" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="Y3" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="Z3" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="AA3" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="F4" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="G4" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="I4" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="J4" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="L4" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="M4" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="O4" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="Q4" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="R4" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="S4" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="T4" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="U4" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="V4" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="X4" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="Y4" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="X4" s="2" t="s">
+      <c r="Z4" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="AA4" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AA4" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="H5" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="I5" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="K5" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="O5" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="P5" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="Q5" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="R5" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="S5" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="T5" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="U5" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="V5" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="W5" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="X5" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="Y5" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="Z5" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="X5" s="1" t="s">
+      <c r="AA5" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="Y5" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="G6" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="I6" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="K6" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="L6" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="N6" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="P6" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="Q6" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="R6" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="S6" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="T6" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="R6" s="3" t="s">
+      <c r="U6" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="V6" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="W6" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="X6" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="Y6" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="W6" s="1" t="s">
+      <c r="Z6" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="X6" s="1" t="s">
+      <c r="AA6" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="Z6" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="F7" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="H7" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="I7" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="K7" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="N7" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="O7" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="P7" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="Q7" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="R7" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="S7" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="T7" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="U7" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="V7" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="W7" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="U7" s="1" t="s">
+      <c r="X7" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="V7" s="1" t="s">
+      <c r="Y7" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="W7" s="1" t="s">
+      <c r="Z7" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="X7" s="1" t="s">
+      <c r="AA7" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="Z7" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="AA7" s="1" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="I8" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="L8" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="N8" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="O8" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="P8" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="R8" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="S8" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="P8" s="3" t="s">
+      <c r="T8" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="U8" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="R8" s="3" t="s">
+      <c r="V8" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="W8" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="T8" s="1" t="s">
+      <c r="X8" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="U8" s="1" t="s">
+      <c r="Y8" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="V8" s="1" t="s">
+      <c r="Z8" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="W8" s="1" t="s">
+      <c r="AA8" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="X8" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="Y8" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="Z8" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AA8" s="1" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="F9" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="G9" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="I9" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="J9" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="M9" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="N9" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="O9" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="P9" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="Q9" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="R9" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="S9" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="P9" s="3" t="s">
+      <c r="T9" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="U9" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="V9" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="S9" s="1" t="s">
+      <c r="W9" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="T9" s="1" t="s">
+      <c r="X9" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="U9" s="1" t="s">
+      <c r="Y9" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="V9" s="1" t="s">
+      <c r="Z9" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="W9" s="1" t="s">
+      <c r="AA9" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="X9" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="Y9" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="Z9" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="AA9" s="1" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="G10" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="H10" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="M10" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="N10" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="O10" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="P10" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="Q10" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="R10" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="S10" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="O10" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="P10" s="3" t="s">
+      <c r="T10" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="Q10" s="1" t="s">
+      <c r="U10" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="R10" s="1" t="s">
+      <c r="V10" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="S10" s="1" t="s">
+      <c r="W10" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="T10" s="1" t="s">
+      <c r="X10" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="U10" s="1" t="s">
+      <c r="Y10" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="V10" s="1" t="s">
+      <c r="Z10" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="W10" s="1" t="s">
+      <c r="AA10" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="X10" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="Y10" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="Z10" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="AA10" s="1" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="F11" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="H11" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="J11" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="L11" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="M11" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="N11" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="O11" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="P11" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="Q11" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="R11" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="S11" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="T11" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="Q11" s="1" t="s">
+      <c r="U11" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="R11" s="3" t="s">
+      <c r="V11" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="S11" s="1" t="s">
+      <c r="W11" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="T11" s="1" t="s">
+      <c r="X11" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="U11" s="1" t="s">
+      <c r="Y11" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="V11" s="1" t="s">
+      <c r="Z11" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="W11" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="X11" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="Y11" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="Z11" s="1" t="s">
-        <v>293</v>
-      </c>
       <c r="AA11" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="I12" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="J12" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="K12" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="L12" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="M12" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="N12" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="O12" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="P12" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="Q12" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="R12" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="O12" s="2" t="s">
+      <c r="S12" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="P12" s="1" t="s">
+      <c r="T12" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="Q12" s="1" t="s">
+      <c r="U12" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="R12" s="3" t="s">
+      <c r="V12" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="S12" s="1" t="s">
+      <c r="W12" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="T12" s="1" t="s">
+      <c r="X12" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="U12" s="1" t="s">
+      <c r="Y12" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="V12" s="1" t="s">
+      <c r="Z12" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="W12" s="1" t="s">
+      <c r="AA12" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="X12" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="Y12" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="Z12" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="AA12" s="1" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="F13" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="G13" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="K13" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="L13" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="M13" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="N13" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="O13" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="P13" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="Q13" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="N13" s="2" t="s">
+      <c r="R13" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="O13" s="1" t="s">
+      <c r="S13" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="P13" s="3" t="s">
+      <c r="T13" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="Q13" s="4" t="s">
+      <c r="U13" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="R13" s="3" t="s">
+      <c r="V13" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="S13" s="1" t="s">
+      <c r="W13" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="T13" s="1" t="s">
+      <c r="X13" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="U13" s="1" t="s">
+      <c r="Y13" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="V13" s="1" t="s">
+      <c r="Z13" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="W13" s="1" t="s">
+      <c r="AA13" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="X13" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="Y13" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="Z13" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="AA13" s="1" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>717</v>
+        <v>705</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="G14" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="K14" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="L14" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="M14" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="N14" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="O14" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="P14" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="Q14" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="N14" s="1" t="s">
+      <c r="R14" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="O14" s="1" t="s">
+      <c r="S14" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="T14" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="Q14" s="1" t="s">
+      <c r="U14" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="V14" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="S14" s="1" t="s">
+      <c r="W14" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="T14" s="1" t="s">
+      <c r="X14" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="U14" s="1" t="s">
+      <c r="Y14" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="V14" s="1" t="s">
+      <c r="Z14" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="W14" s="1" t="s">
+      <c r="AA14" s="1" t="s">
         <v>368</v>
-      </c>
-      <c r="X14" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="Y14" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="Z14" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="AA14" s="1" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="F15" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="I15" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="J15" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="K15" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="L15" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="M15" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="N15" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="O15" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="P15" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="Q15" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="L15" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="M15" s="2" t="s">
+      <c r="R15" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="N15" s="1" t="s">
+      <c r="S15" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="O15" s="1" t="s">
+      <c r="T15" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="P15" s="3" t="s">
+      <c r="U15" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="Q15" s="1" t="s">
+      <c r="V15" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="R15" s="3" t="s">
+      <c r="W15" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="S15" s="1" t="s">
+      <c r="X15" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="T15" s="1" t="s">
+      <c r="Y15" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="U15" s="1" t="s">
+      <c r="Z15" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="V15" s="1" t="s">
+      <c r="AA15" s="1" t="s">
         <v>392</v>
-      </c>
-      <c r="W15" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="X15" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="Y15" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="Z15" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="AA15" s="1" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>398</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>403</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="P16" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="Q16" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="R16" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="L16" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="M16" s="2" t="s">
+      <c r="S16" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="T16" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="P16" s="3" t="s">
+      <c r="U16" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="Q16" s="1" t="s">
+      <c r="V16" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="R16" s="3" t="s">
+      <c r="W16" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="S16" s="1" t="s">
+      <c r="X16" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="T16" s="1" t="s">
+      <c r="Y16" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="U16" s="1" t="s">
+      <c r="Z16" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="V16" s="1" t="s">
+      <c r="AA16" s="2" t="s">
         <v>415</v>
-      </c>
-      <c r="W16" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="X16" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="Y16" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="Z16" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="AA16" s="2" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="17" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>421</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>426</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="N17" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="P17" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="Q17" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="R17" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="S17" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="N17" s="2" t="s">
+      <c r="T17" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="P17" s="3" t="s">
+      <c r="U17" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="Q17" s="2" t="s">
+      <c r="V17" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="R17" s="3" t="s">
+      <c r="W17" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="S17" s="1" t="s">
+      <c r="X17" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="T17" s="1" t="s">
+      <c r="Y17" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="U17" s="1" t="s">
+      <c r="Z17" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="V17" s="1" t="s">
+      <c r="AA17" s="1" t="s">
         <v>439</v>
-      </c>
-      <c r="W17" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="X17" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="Y17" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="Z17" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="AA17" s="1" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="18" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>448</v>
+        <v>706</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="Q18" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="R18" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="S18" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="T18" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="U18" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="V18" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="P18" s="1" t="s">
+      <c r="W18" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="Q18" s="1" t="s">
+      <c r="X18" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="R18" s="3" t="s">
+      <c r="Y18" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="S18" s="1" t="s">
+      <c r="Z18" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="T18" s="1" t="s">
+      <c r="AA18" s="1" t="s">
         <v>460</v>
-      </c>
-      <c r="U18" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="V18" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="W18" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="X18" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="Y18" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="Z18" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="AA18" s="1" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="19" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="K19" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="L19" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="M19" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="N19" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="P19" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="Q19" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="R19" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="S19" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="T19" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="M19" s="2" t="s">
+      <c r="U19" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="N19" s="1" t="s">
+      <c r="V19" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="P19" s="3" t="s">
+      <c r="W19" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="Q19" s="2" t="s">
+      <c r="X19" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="R19" s="1" t="s">
+      <c r="Y19" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="S19" s="1" t="s">
+      <c r="Z19" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="T19" s="1" t="s">
+      <c r="AA19" s="1" t="s">
         <v>484</v>
-      </c>
-      <c r="U19" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="V19" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="W19" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="X19" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="Y19" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="Z19" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="AA19" s="1" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="20" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="K20" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="L20" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="M20" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="N20" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="P20" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="Q20" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="R20" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="S20" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="T20" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="U20" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="M20" s="2" t="s">
+      <c r="V20" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="N20" s="1" t="s">
+      <c r="W20" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="P20" s="1" t="s">
+      <c r="X20" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="Q20" s="1" t="s">
+      <c r="Z20" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="R20" s="3" t="s">
+      <c r="AA20" s="1" t="s">
         <v>506</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="T20" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="U20" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="V20" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="W20" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="X20" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="Z20" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="AA20" s="1" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="21" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="L21" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="M21" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="N21" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="P21" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="Q21" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="R21" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="S21" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="T21" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="L21" s="1" t="s">
+      <c r="U21" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="M21" s="2" t="s">
+      <c r="V21" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="N21" s="1" t="s">
+      <c r="W21" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="P21" s="1" t="s">
+      <c r="X21" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="Q21" s="1" t="s">
+      <c r="Z21" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="R21" s="3" t="s">
+      <c r="AA21" s="2" t="s">
         <v>529</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="T21" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="U21" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="V21" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="W21" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="X21" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="Z21" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="AA21" s="2" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="22" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="P22" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="Q22" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="R22" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="S22" s="1" t="s">
         <v>541</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="Q22" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="R22" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="S22" s="1" t="s">
-        <v>551</v>
       </c>
       <c r="U22" s="2"/>
       <c r="V22" s="1" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="W22" s="1" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="X22" s="1" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="Z22" s="1" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="AA22" s="1" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
     </row>
     <row r="23" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="1" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" s="1" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="U23" s="2"/>
       <c r="V23" s="1" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="X23" s="1" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="AA23" s="1" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
     </row>
     <row r="24" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="2" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" s="1" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
       <c r="V24" s="1" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="W24" s="1" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="X24" s="1" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="AA24" s="1" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
     </row>
     <row r="25" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="1" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" s="3" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
       <c r="V25" s="1" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="W25" s="1" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="X25" s="1" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="AA25" s="1" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
     </row>
     <row r="26" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="2" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="1" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="L26" s="1"/>
       <c r="P26" s="1" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" s="3" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
       <c r="V26" s="1" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="W26" s="1" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="X26" s="1" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="AA26" s="1" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
     </row>
     <row r="27" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="2" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="L27" s="2"/>
       <c r="P27" s="3" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" s="3" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
       <c r="W27" s="1" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="X27" s="1" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="AA27" s="1" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
     </row>
     <row r="28" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="1" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="L28" s="1"/>
       <c r="P28" s="1" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="Q28" s="1"/>
       <c r="R28" s="3" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
       <c r="V28" s="2"/>
       <c r="W28" s="1" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="X28" s="1" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="AA28" s="2" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
     </row>
     <row r="29" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="1" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="P29" s="3" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="Q29" s="1"/>
       <c r="R29" s="3" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
       <c r="V29" s="2"/>
       <c r="W29" s="1" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="X29" s="1" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="AA29" s="1" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
     </row>
     <row r="30" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="P30" s="3" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="Q30" s="1"/>
       <c r="R30" s="3" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
       <c r="V30" s="2"/>
       <c r="W30" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="X30" s="1" t="s">
-        <v>646</v>
+        <v>635</v>
+      </c>
+      <c r="X30" s="2" t="s">
+        <v>644</v>
       </c>
       <c r="AA30" s="1" t="s">
-        <v>647</v>
+        <v>636</v>
       </c>
     </row>
     <row r="31" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>651</v>
+        <v>640</v>
       </c>
       <c r="Q31" s="1"/>
       <c r="R31" s="1" t="s">
-        <v>652</v>
+        <v>641</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
       <c r="V31" s="2"/>
       <c r="W31" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="X31" s="2" t="s">
-        <v>655</v>
+        <v>643</v>
+      </c>
+      <c r="X31" s="1" t="s">
+        <v>653</v>
       </c>
       <c r="AA31" s="1" t="s">
-        <v>656</v>
+        <v>645</v>
       </c>
     </row>
     <row r="32" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C32" s="2" t="s">
-        <v>657</v>
+        <v>646</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
-        <v>658</v>
+        <v>647</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>659</v>
+        <v>648</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>660</v>
+        <v>649</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>661</v>
+        <v>650</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>662</v>
+        <v>651</v>
       </c>
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
       <c r="V32" s="2"/>
       <c r="W32" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="X32" s="1" t="s">
-        <v>664</v>
+        <v>652</v>
+      </c>
+      <c r="X32" s="2" t="s">
+        <v>662</v>
       </c>
       <c r="AA32" s="1" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
     </row>
     <row r="33" spans="3:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C33" s="1" t="s">
-        <v>666</v>
+        <v>655</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="1" t="s">
-        <v>667</v>
+        <v>656</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>668</v>
+        <v>657</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>669</v>
+        <v>658</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>670</v>
+        <v>659</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>671</v>
+        <v>660</v>
       </c>
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
       <c r="V33" s="2"/>
       <c r="W33" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="X33" s="2" t="s">
-        <v>673</v>
+        <v>661</v>
+      </c>
+      <c r="X33" s="1" t="s">
+        <v>670</v>
       </c>
       <c r="AA33" s="1" t="s">
-        <v>674</v>
+        <v>663</v>
       </c>
     </row>
     <row r="34" spans="3:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C34" s="2" t="s">
-        <v>675</v>
+        <v>664</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="1" t="s">
-        <v>676</v>
+        <v>665</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>677</v>
+        <v>666</v>
       </c>
       <c r="P34" s="3" t="s">
-        <v>678</v>
+        <v>667</v>
       </c>
       <c r="R34" s="3" t="s">
-        <v>679</v>
+        <v>668</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>680</v>
+        <v>669</v>
       </c>
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
       <c r="V34" s="2"/>
       <c r="W34" s="1" t="s">
-        <v>681</v>
+        <v>716</v>
       </c>
       <c r="X34" s="1" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="AA34" s="1" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
     </row>
     <row r="35" spans="3:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E35" s="1" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>686</v>
+        <v>674</v>
       </c>
       <c r="R35" s="3" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>688</v>
+        <v>676</v>
       </c>
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
       <c r="W35" s="1" t="s">
-        <v>689</v>
+        <v>677</v>
       </c>
       <c r="X35" s="1" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="AA35" s="1" t="s">
-        <v>691</v>
+        <v>679</v>
       </c>
     </row>
     <row r="36" spans="3:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D36" s="2"/>
       <c r="E36" s="1" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>693</v>
+        <v>681</v>
       </c>
       <c r="R36" s="3" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
       <c r="W36" s="1" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="X36" s="1" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="AA36" s="1" t="s">
-        <v>698</v>
+        <v>686</v>
       </c>
     </row>
     <row r="37" spans="3:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D37" s="1"/>
       <c r="E37" s="1" t="s">
-        <v>699</v>
+        <v>687</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>700</v>
+        <v>688</v>
       </c>
       <c r="R37" s="3" t="s">
-        <v>701</v>
+        <v>689</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>702</v>
-      </c>
-      <c r="X37" s="1" t="s">
-        <v>703</v>
+        <v>690</v>
+      </c>
+      <c r="X37" s="2" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="38" spans="3:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D38" s="2"/>
       <c r="E38" s="1" t="s">
-        <v>704</v>
+        <v>692</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>705</v>
-      </c>
-      <c r="X38" s="2" t="s">
-        <v>706</v>
+        <v>693</v>
+      </c>
+      <c r="X38" s="1" t="s">
+        <v>696</v>
       </c>
       <c r="AA38" s="2"/>
     </row>
     <row r="39" spans="3:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D39" s="1"/>
       <c r="F39" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="X39" s="1" t="s">
-        <v>708</v>
+        <v>695</v>
       </c>
     </row>
     <row r="40" spans="3:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D40" s="2"/>
       <c r="F40" s="2" t="s">
-        <v>709</v>
+        <v>697</v>
       </c>
     </row>
     <row r="41" spans="3:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F41" s="1" t="s">
-        <v>710</v>
+        <v>698</v>
       </c>
     </row>
     <row r="42" spans="3:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F42" s="1" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
     </row>
     <row r="43" spans="3:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F43" s="2" t="s">
-        <v>712</v>
+        <v>700</v>
       </c>
       <c r="S43" s="1"/>
     </row>
     <row r="44" spans="3:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F44" s="2" t="s">
-        <v>713</v>
+        <v>701</v>
       </c>
     </row>
     <row r="45" spans="3:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F45" s="1" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="S45" s="1"/>
     </row>
     <row r="46" spans="3:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F46" s="1" t="s">
-        <v>715</v>
+        <v>703</v>
       </c>
       <c r="S46" s="1"/>
     </row>
     <row r="47" spans="3:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F47" s="1" t="s">
-        <v>716</v>
+        <v>704</v>
       </c>
       <c r="S47" s="1"/>
     </row>

--- a/underlying_hpo_struct.xlsx
+++ b/underlying_hpo_struct.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="709">
   <si>
     <t>Perinatal History</t>
   </si>
@@ -426,7 +426,7 @@
     <t>Attention deficit hyperactivity disorder</t>
   </si>
   <si>
-    <t>Babinski sign</t>
+    <t>Cerebral palsy</t>
   </si>
   <si>
     <t>Abnormality of the basal ganglia</t>
@@ -507,7 +507,7 @@
     <t>Autistic behavior</t>
   </si>
   <si>
-    <t>Cerebral palsy</t>
+    <t>Chorea</t>
   </si>
   <si>
     <t>Aplasia/Hypoplasia of the cerebellar vermis</t>
@@ -588,7 +588,7 @@
     <t>Cognitive impairment</t>
   </si>
   <si>
-    <t>Chorea</t>
+    <t>Dyskinesia</t>
   </si>
   <si>
     <t>Aplasia/Hypoplasia of the cerebellum</t>
@@ -669,7 +669,7 @@
     <t>Delayed speech and language development</t>
   </si>
   <si>
-    <t>Delayed fine motor development</t>
+    <t>Dysmetria</t>
   </si>
   <si>
     <t>Brain stem compression</t>
@@ -750,7 +750,7 @@
     <t>Depression</t>
   </si>
   <si>
-    <t>Delayed gross motor development</t>
+    <t>Dystonia</t>
   </si>
   <si>
     <t>Cerebellar atrophy</t>
@@ -828,7 +828,7 @@
     <t>Developmental regression</t>
   </si>
   <si>
-    <t>Dyskinesia</t>
+    <t>Frequent falls</t>
   </si>
   <si>
     <t>Cerebral cortical atrophy</t>
@@ -903,7 +903,7 @@
     <t>Infantile spasms</t>
   </si>
   <si>
-    <t>Dysmetria</t>
+    <t>Gait disturbance</t>
   </si>
   <si>
     <t>CNS demyelination</t>
@@ -984,7 +984,7 @@
     <t>Dyscalculia</t>
   </si>
   <si>
-    <t>Dystonia</t>
+    <t>Hemiplegia</t>
   </si>
   <si>
     <t>CNS hypomyelination</t>
@@ -1065,7 +1065,7 @@
     <t>Dyslexia</t>
   </si>
   <si>
-    <t>Exercise-induced muscle cramps</t>
+    <t>Hyperreflexia</t>
   </si>
   <si>
     <t>Cortical dysplasia</t>
@@ -1146,7 +1146,7 @@
     <t>Global developmental delay</t>
   </si>
   <si>
-    <t>Frequent falls</t>
+    <t>Hypokinesia</t>
   </si>
   <si>
     <t>Cortical tubers</t>
@@ -1221,7 +1221,7 @@
     <t>Hyperactivity</t>
   </si>
   <si>
-    <t>Gait disturbance</t>
+    <t>Hyporeflexia</t>
   </si>
   <si>
     <t>Delayed CNS myelination</t>
@@ -1290,7 +1290,7 @@
     <t>Impaired visuospatial constructive cognition</t>
   </si>
   <si>
-    <t>Hemiplegia</t>
+    <t>Inability to walk</t>
   </si>
   <si>
     <t>Dysgenesis of the basal ganglia</t>
@@ -1362,7 +1362,7 @@
     <t>Intellectual disability</t>
   </si>
   <si>
-    <t>Hyperreflexia</t>
+    <t>Incoordination</t>
   </si>
   <si>
     <t>Peripheral neuropathy</t>
@@ -1431,7 +1431,7 @@
     <t>Lethargy</t>
   </si>
   <si>
-    <t>Hypokinesia</t>
+    <t>Involuntary movements</t>
   </si>
   <si>
     <t>Gliosis</t>
@@ -1503,7 +1503,7 @@
     <t>Memory impairment</t>
   </si>
   <si>
-    <t>Hyporeflexia</t>
+    <t>Loss of ambulation</t>
   </si>
   <si>
     <t>Gray matter heterotopia</t>
@@ -1572,7 +1572,7 @@
     <t>Obsessive-compulsive behavior</t>
   </si>
   <si>
-    <t>Inability to walk</t>
+    <t>Motor stereotypy</t>
   </si>
   <si>
     <t>Holoprosencephaly</t>
@@ -1638,7 +1638,7 @@
     <t>Polydipsia</t>
   </si>
   <si>
-    <t>Incoordination</t>
+    <t>Myoclonus</t>
   </si>
   <si>
     <t>Hydrocephalus</t>
@@ -1695,7 +1695,7 @@
     <t>Restrictive behavior</t>
   </si>
   <si>
-    <t>Involuntary movements</t>
+    <t>Paraplegia</t>
   </si>
   <si>
     <t>Hyperintensity of cerebral white matter on MRI</t>
@@ -1740,7 +1740,7 @@
     <t>Sleep disturbance</t>
   </si>
   <si>
-    <t>Loss of ambulation</t>
+    <t>Parkinsonism</t>
   </si>
   <si>
     <t>Hypointensity of cerebral white matter on MRI</t>
@@ -1785,7 +1785,7 @@
     <t>Speech articulation difficulties</t>
   </si>
   <si>
-    <t>Motor stereotypy</t>
+    <t>Poor suck</t>
   </si>
   <si>
     <t>Hypoplasia of the corpus callosum</t>
@@ -1818,7 +1818,7 @@
     <t>Hypertriglyceridemia</t>
   </si>
   <si>
-    <t>Myoclonus</t>
+    <t>Postural instability</t>
   </si>
   <si>
     <t>Leukodystrophy</t>
@@ -1851,7 +1851,7 @@
     <t>Hyperuricemia</t>
   </si>
   <si>
-    <t>Paraplegia</t>
+    <t>Progressive muscle weakness</t>
   </si>
   <si>
     <t>Lissencephaly</t>
@@ -1881,7 +1881,7 @@
     <t>Hypoammonemia</t>
   </si>
   <si>
-    <t>Parkinsonism</t>
+    <t>Proximal muscle weakness</t>
   </si>
   <si>
     <t>Pachygyria</t>
@@ -1911,7 +1911,7 @@
     <t>Hypoglycemia</t>
   </si>
   <si>
-    <t>Poor suck</t>
+    <t>Spasticity</t>
   </si>
   <si>
     <t>Periventricular leukomalacia</t>
@@ -1941,7 +1941,7 @@
     <t>Increased blood urea nitrogen</t>
   </si>
   <si>
-    <t>Postural instability</t>
+    <t>Tip-toe gait</t>
   </si>
   <si>
     <t>Periventricular nodular heterotopia</t>
@@ -1968,7 +1968,7 @@
     <t>Increased serum pyruvate</t>
   </si>
   <si>
-    <t>Progressive muscle weakness</t>
+    <t>Torticollis</t>
   </si>
   <si>
     <t>Periventricular white matter hyperintensities</t>
@@ -1995,7 +1995,7 @@
     <t>Ketonuria</t>
   </si>
   <si>
-    <t>Proximal muscle weakness</t>
+    <t>Tremor</t>
   </si>
   <si>
     <t>Polymicrogyria</t>
@@ -2022,7 +2022,7 @@
     <t>Lactic acidosis</t>
   </si>
   <si>
-    <t>Spasticity</t>
+    <t>Waddling gait</t>
   </si>
   <si>
     <t>Tethered cord</t>
@@ -2049,9 +2049,6 @@
     <t>Metabolic ketoacidosis</t>
   </si>
   <si>
-    <t>Tip-toe gait</t>
-  </si>
-  <si>
     <t>Ventriculomegaly</t>
   </si>
   <si>
@@ -2073,9 +2070,6 @@
     <t>Schistocytosis</t>
   </si>
   <si>
-    <t>Torticollis</t>
-  </si>
-  <si>
     <t>Trigonocephaly</t>
   </si>
   <si>
@@ -2094,9 +2088,6 @@
     <t>Seborrheic dermatitis</t>
   </si>
   <si>
-    <t>Tremor</t>
-  </si>
-  <si>
     <t>Wide anterior fontanel</t>
   </si>
   <si>
@@ -2110,9 +2101,6 @@
   </si>
   <si>
     <t>Verrucae</t>
-  </si>
-  <si>
-    <t>Waddling gait</t>
   </si>
   <si>
     <t>Wide nose</t>
@@ -2877,7 +2865,7 @@
       <c r="B6" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>136</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -2960,7 +2948,7 @@
       <c r="B7" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>163</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -3126,7 +3114,7 @@
       <c r="B9" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>217</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -3209,7 +3197,7 @@
       <c r="B10" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>244</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -3624,7 +3612,7 @@
       <c r="B15" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>376</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -3854,7 +3842,7 @@
       <c r="B18" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>448</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -4003,7 +3991,7 @@
       <c r="B20" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>495</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -4142,7 +4130,7 @@
       <c r="B22" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="3" t="s">
         <v>540</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -4202,7 +4190,7 @@
       <c r="B23" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>559</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -4254,7 +4242,7 @@
       <c r="B24" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="3" t="s">
         <v>574</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -4385,7 +4373,7 @@
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>611</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -4423,7 +4411,7 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="B28" s="2"/>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="2" t="s">
         <v>621</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -4461,7 +4449,7 @@
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>631</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -4533,7 +4521,7 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="B31" s="2"/>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="3" t="s">
         <v>650</v>
       </c>
       <c r="D31" s="2" t="s">
@@ -4566,7 +4554,7 @@
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="3" t="s">
         <v>659</v>
       </c>
       <c r="D32" s="2" t="s">
@@ -4599,7 +4587,7 @@
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="3" t="s">
         <v>668</v>
       </c>
       <c r="D33" s="2" t="s">
@@ -4632,108 +4620,100 @@
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="2"/>
+      <c r="D34" s="2" t="s">
         <v>677</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>678</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="Q34" s="3" t="s">
         <v>680</v>
       </c>
-      <c r="Q34" s="3" t="s">
+      <c r="S34" s="2" t="s">
         <v>681</v>
-      </c>
-      <c r="S34" s="2" t="s">
-        <v>682</v>
       </c>
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
       <c r="V34" s="2"/>
       <c r="W34" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="Z34" s="2" t="s">
         <v>683</v>
-      </c>
-      <c r="Z34" s="2" t="s">
-        <v>684</v>
       </c>
       <c r="AA34" s="2"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="2"/>
+      <c r="F35" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="G35" s="2" t="s">
         <v>685</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="Q35" s="2" t="s">
         <v>686</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="S35" s="2" t="s">
         <v>687</v>
-      </c>
-      <c r="Q35" s="2" t="s">
-        <v>688</v>
-      </c>
-      <c r="S35" s="2" t="s">
-        <v>689</v>
       </c>
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
       <c r="V35" s="2"/>
       <c r="W35" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="Z35" s="2" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AA35" s="2"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="C36" s="3" t="s">
-        <v>692</v>
-      </c>
+      <c r="C36" s="3"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="S36" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="W36" s="2" t="s">
         <v>693</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="Z36" s="2" t="s">
         <v>694</v>
-      </c>
-      <c r="S36" s="2" t="s">
-        <v>695</v>
-      </c>
-      <c r="W36" s="2" t="s">
-        <v>696</v>
-      </c>
-      <c r="Z36" s="2" t="s">
-        <v>697</v>
       </c>
       <c r="AA36" s="2"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="C37" s="3" t="s">
-        <v>698</v>
-      </c>
+      <c r="C37" s="3"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="AA37" s="2"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="E38" s="2"/>
       <c r="F38" s="2" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="Z38" s="2"/>
       <c r="AA38" s="2"/>
@@ -4741,51 +4721,51 @@
     <row r="39" ht="15.75" customHeight="1">
       <c r="E39" s="2"/>
       <c r="G39" s="2" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="E40" s="2"/>
       <c r="G40" s="2" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="G41" s="2" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="G42" s="2" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="G43" s="2" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="S43" s="2"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="G44" s="2" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="G45" s="2" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="S45" s="2"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="G46" s="2" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="S46" s="2"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="G47" s="2" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="S47" s="2"/>
     </row>

--- a/underlying_hpo_struct.xlsx
+++ b/underlying_hpo_struct.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="709">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="708">
   <si>
     <t>Perinatal History</t>
   </si>
@@ -828,7 +828,7 @@
     <t>Developmental regression</t>
   </si>
   <si>
-    <t>Frequent falls</t>
+    <t>Gait disturbance</t>
   </si>
   <si>
     <t>Cerebral cortical atrophy</t>
@@ -903,7 +903,7 @@
     <t>Infantile spasms</t>
   </si>
   <si>
-    <t>Gait disturbance</t>
+    <t>Hemiplegia</t>
   </si>
   <si>
     <t>CNS demyelination</t>
@@ -984,7 +984,7 @@
     <t>Dyscalculia</t>
   </si>
   <si>
-    <t>Hemiplegia</t>
+    <t>Hyperreflexia</t>
   </si>
   <si>
     <t>CNS hypomyelination</t>
@@ -1065,7 +1065,7 @@
     <t>Dyslexia</t>
   </si>
   <si>
-    <t>Hyperreflexia</t>
+    <t>Hypokinesia</t>
   </si>
   <si>
     <t>Cortical dysplasia</t>
@@ -1146,7 +1146,7 @@
     <t>Global developmental delay</t>
   </si>
   <si>
-    <t>Hypokinesia</t>
+    <t>Hyporeflexia</t>
   </si>
   <si>
     <t>Cortical tubers</t>
@@ -1221,7 +1221,7 @@
     <t>Hyperactivity</t>
   </si>
   <si>
-    <t>Hyporeflexia</t>
+    <t>Inability to walk</t>
   </si>
   <si>
     <t>Delayed CNS myelination</t>
@@ -1290,7 +1290,7 @@
     <t>Impaired visuospatial constructive cognition</t>
   </si>
   <si>
-    <t>Inability to walk</t>
+    <t>Incoordination</t>
   </si>
   <si>
     <t>Dysgenesis of the basal ganglia</t>
@@ -1362,7 +1362,7 @@
     <t>Intellectual disability</t>
   </si>
   <si>
-    <t>Incoordination</t>
+    <t>Involuntary movements</t>
   </si>
   <si>
     <t>Peripheral neuropathy</t>
@@ -1431,7 +1431,7 @@
     <t>Lethargy</t>
   </si>
   <si>
-    <t>Involuntary movements</t>
+    <t>Loss of ambulation</t>
   </si>
   <si>
     <t>Gliosis</t>
@@ -1503,7 +1503,7 @@
     <t>Memory impairment</t>
   </si>
   <si>
-    <t>Loss of ambulation</t>
+    <t>Motor stereotypy</t>
   </si>
   <si>
     <t>Gray matter heterotopia</t>
@@ -1572,7 +1572,7 @@
     <t>Obsessive-compulsive behavior</t>
   </si>
   <si>
-    <t>Motor stereotypy</t>
+    <t>Myoclonus</t>
   </si>
   <si>
     <t>Holoprosencephaly</t>
@@ -1638,7 +1638,7 @@
     <t>Polydipsia</t>
   </si>
   <si>
-    <t>Myoclonus</t>
+    <t>Paraplegia</t>
   </si>
   <si>
     <t>Hydrocephalus</t>
@@ -1695,7 +1695,7 @@
     <t>Restrictive behavior</t>
   </si>
   <si>
-    <t>Paraplegia</t>
+    <t>Parkinsonism</t>
   </si>
   <si>
     <t>Hyperintensity of cerebral white matter on MRI</t>
@@ -1740,7 +1740,7 @@
     <t>Sleep disturbance</t>
   </si>
   <si>
-    <t>Parkinsonism</t>
+    <t>Poor suck</t>
   </si>
   <si>
     <t>Hypointensity of cerebral white matter on MRI</t>
@@ -1785,7 +1785,7 @@
     <t>Speech articulation difficulties</t>
   </si>
   <si>
-    <t>Poor suck</t>
+    <t>Postural instability</t>
   </si>
   <si>
     <t>Hypoplasia of the corpus callosum</t>
@@ -1818,7 +1818,7 @@
     <t>Hypertriglyceridemia</t>
   </si>
   <si>
-    <t>Postural instability</t>
+    <t>Progressive muscle weakness</t>
   </si>
   <si>
     <t>Leukodystrophy</t>
@@ -1851,7 +1851,7 @@
     <t>Hyperuricemia</t>
   </si>
   <si>
-    <t>Progressive muscle weakness</t>
+    <t>Proximal muscle weakness</t>
   </si>
   <si>
     <t>Lissencephaly</t>
@@ -1881,7 +1881,7 @@
     <t>Hypoammonemia</t>
   </si>
   <si>
-    <t>Proximal muscle weakness</t>
+    <t>Spasticity</t>
   </si>
   <si>
     <t>Pachygyria</t>
@@ -1911,7 +1911,7 @@
     <t>Hypoglycemia</t>
   </si>
   <si>
-    <t>Spasticity</t>
+    <t>Tip-toe gait</t>
   </si>
   <si>
     <t>Periventricular leukomalacia</t>
@@ -1941,7 +1941,7 @@
     <t>Increased blood urea nitrogen</t>
   </si>
   <si>
-    <t>Tip-toe gait</t>
+    <t>Torticollis</t>
   </si>
   <si>
     <t>Periventricular nodular heterotopia</t>
@@ -1968,7 +1968,7 @@
     <t>Increased serum pyruvate</t>
   </si>
   <si>
-    <t>Torticollis</t>
+    <t>Tremor</t>
   </si>
   <si>
     <t>Periventricular white matter hyperintensities</t>
@@ -1995,7 +1995,7 @@
     <t>Ketonuria</t>
   </si>
   <si>
-    <t>Tremor</t>
+    <t>Waddling gait</t>
   </si>
   <si>
     <t>Polymicrogyria</t>
@@ -2020,9 +2020,6 @@
   </si>
   <si>
     <t>Lactic acidosis</t>
-  </si>
-  <si>
-    <t>Waddling gait</t>
   </si>
   <si>
     <t>Tethered cord</t>
@@ -3529,7 +3526,7 @@
       <c r="B14" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>349</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -3612,7 +3609,7 @@
       <c r="B15" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>376</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -3767,7 +3764,7 @@
       <c r="B17" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>424</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -3991,7 +3988,7 @@
       <c r="B20" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>495</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -4333,7 +4330,7 @@
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>600</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -4449,7 +4446,7 @@
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="3" t="s">
         <v>631</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -4587,89 +4584,86 @@
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="C33" s="3" t="s">
+      <c r="D33" s="2" t="s">
         <v>668</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>669</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="Q33" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="Q33" s="2" t="s">
+      <c r="S33" s="2" t="s">
         <v>672</v>
-      </c>
-      <c r="S33" s="2" t="s">
-        <v>673</v>
       </c>
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
       <c r="V33" s="2"/>
       <c r="W33" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="Z33" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="Z33" s="2" t="s">
+      <c r="AA33" s="2" t="s">
         <v>675</v>
-      </c>
-      <c r="AA33" s="2" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="Q34" s="3" t="s">
         <v>679</v>
       </c>
-      <c r="Q34" s="3" t="s">
+      <c r="S34" s="2" t="s">
         <v>680</v>
-      </c>
-      <c r="S34" s="2" t="s">
-        <v>681</v>
       </c>
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
       <c r="V34" s="2"/>
       <c r="W34" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="Z34" s="2" t="s">
         <v>682</v>
-      </c>
-      <c r="Z34" s="2" t="s">
-        <v>683</v>
       </c>
       <c r="AA34" s="2"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="C35" s="2"/>
       <c r="F35" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="G35" s="2" t="s">
         <v>684</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="Q35" s="2" t="s">
         <v>685</v>
       </c>
-      <c r="Q35" s="2" t="s">
+      <c r="S35" s="2" t="s">
         <v>686</v>
-      </c>
-      <c r="S35" s="2" t="s">
-        <v>687</v>
       </c>
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
       <c r="V35" s="2"/>
       <c r="W35" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="Z35" s="2" t="s">
         <v>688</v>
-      </c>
-      <c r="Z35" s="2" t="s">
-        <v>689</v>
       </c>
       <c r="AA35" s="2"/>
     </row>
@@ -4677,19 +4671,19 @@
       <c r="C36" s="3"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>690</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="S36" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="S36" s="2" t="s">
+      <c r="W36" s="2" t="s">
         <v>692</v>
       </c>
-      <c r="W36" s="2" t="s">
+      <c r="Z36" s="2" t="s">
         <v>693</v>
-      </c>
-      <c r="Z36" s="2" t="s">
-        <v>694</v>
       </c>
       <c r="AA36" s="2"/>
     </row>
@@ -4697,23 +4691,23 @@
       <c r="C37" s="3"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>695</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="S37" s="2" t="s">
         <v>696</v>
-      </c>
-      <c r="S37" s="2" t="s">
-        <v>697</v>
       </c>
       <c r="AA37" s="2"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="E38" s="2"/>
       <c r="F38" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="G38" s="2" t="s">
         <v>698</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>699</v>
       </c>
       <c r="Z38" s="2"/>
       <c r="AA38" s="2"/>
@@ -4721,51 +4715,51 @@
     <row r="39" ht="15.75" customHeight="1">
       <c r="E39" s="2"/>
       <c r="G39" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="E40" s="2"/>
       <c r="G40" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="G41" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="G42" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="G43" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="S43" s="2"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="G44" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="G45" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="S45" s="2"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="G46" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="S46" s="2"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="G47" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="S47" s="2"/>
     </row>

--- a/underlying_hpo_struct.xlsx
+++ b/underlying_hpo_struct.xlsx
@@ -84,7 +84,7 @@
     <t>Skeletal: Limbs</t>
   </si>
   <si>
-    <t>Skeletal: Hands/Fingers and Feet/Toes</t>
+    <t>Skeletal: Hands and Feet</t>
   </si>
   <si>
     <t>Endocrine System</t>
@@ -165,7 +165,7 @@
     <t>Bifid femur</t>
   </si>
   <si>
-    <t>Abnormal finger phalanx morphology</t>
+    <t>Aplasia/Hypoplasia of metatarsal bones</t>
   </si>
   <si>
     <t>Decreased response to growth hormone stimulation test</t>
@@ -246,7 +246,7 @@
     <t>Bowing of the legs</t>
   </si>
   <si>
-    <t>Aplasia/Hypoplasia of metatarsal bones</t>
+    <t>Aplasia/Hypoplasia of the hallux</t>
   </si>
   <si>
     <t>Delayed puberty</t>
@@ -327,7 +327,7 @@
     <t>Coxa valga</t>
   </si>
   <si>
-    <t>Aplasia/Hypoplasia of the hallux</t>
+    <t>Aplasia/Hypoplasia of the radius</t>
   </si>
   <si>
     <t>Diabetes insipidus</t>
@@ -408,7 +408,7 @@
     <t>Disproportionate short-limb short stature</t>
   </si>
   <si>
-    <t>Aplasia/Hypoplasia of the radius</t>
+    <t>Brachydactyly</t>
   </si>
   <si>
     <t>Diabetes mellitus</t>
@@ -486,7 +486,7 @@
     <t>Fibular aplasia</t>
   </si>
   <si>
-    <t>Brachydactyly</t>
+    <t>Broad hallux</t>
   </si>
   <si>
     <t>Hypercalcemia</t>
@@ -567,7 +567,7 @@
     <t>Fibular hypoplasia</t>
   </si>
   <si>
-    <t>Broad hallux</t>
+    <t>Broad thumb</t>
   </si>
   <si>
     <t>Hypergonadotropic hypogonadism</t>
@@ -648,7 +648,7 @@
     <t>Fibular overgrowth</t>
   </si>
   <si>
-    <t>Broad thumb</t>
+    <t>Carpal bone hypoplasia</t>
   </si>
   <si>
     <t>Hyperparathyroidism</t>
@@ -729,7 +729,7 @@
     <t>Flat capital femoral epiphysis</t>
   </si>
   <si>
-    <t>Carpal bone hypoplasia</t>
+    <t>Clubbing of fingers</t>
   </si>
   <si>
     <t>Hyperphosphatemia</t>
@@ -807,7 +807,7 @@
     <t>Genu valgum</t>
   </si>
   <si>
-    <t>Clubbing of fingers</t>
+    <t>Clubbing of toes</t>
   </si>
   <si>
     <t>Hyperthyroidism</t>
@@ -888,7 +888,7 @@
     <t>Hypoplasia of the ulna</t>
   </si>
   <si>
-    <t>Clubbing of toes</t>
+    <t>Drumstick terminal phalanges</t>
   </si>
   <si>
     <t>Hypocalcemia</t>
@@ -963,7 +963,7 @@
     <t>Mesomelia</t>
   </si>
   <si>
-    <t>Drumstick terminal phalanges</t>
+    <t>Foot monodactyly</t>
   </si>
   <si>
     <t>Hypoparathyroidism</t>
@@ -1044,7 +1044,7 @@
     <t>Mesomelic arm shortening</t>
   </si>
   <si>
-    <t>Foot monodactyly</t>
+    <t>Hammertoe</t>
   </si>
   <si>
     <t>Hypophosphatemia</t>
@@ -1125,7 +1125,7 @@
     <t>Mesomelic leg shortening</t>
   </si>
   <si>
-    <t>Hammertoe</t>
+    <t>Hand monodactyly</t>
   </si>
   <si>
     <t>Hypothyroidism</t>
@@ -1200,7 +1200,7 @@
     <t>Mesomelic short stature</t>
   </si>
   <si>
-    <t>Hand monodactyly</t>
+    <t>Large carpal bones</t>
   </si>
   <si>
     <t>Lymphedema</t>
@@ -1269,7 +1269,7 @@
     <t>Patellar hypoplasia</t>
   </si>
   <si>
-    <t>Large carpal bones</t>
+    <t>Large hands</t>
   </si>
   <si>
     <t>Maturity-onset diabetes of the young</t>
@@ -1341,7 +1341,7 @@
     <t>Radioulnar synostosis</t>
   </si>
   <si>
-    <t>Large hands</t>
+    <t>Metatarsus adductus</t>
   </si>
   <si>
     <t>Rickets</t>
@@ -1410,7 +1410,7 @@
     <t>Rhizomelia</t>
   </si>
   <si>
-    <t>Metatarsus adductus</t>
+    <t>Patellar dislocation</t>
   </si>
   <si>
     <t>Type I diabetes mellitus</t>
@@ -1482,7 +1482,7 @@
     <t>Rhizomelic arm shortening</t>
   </si>
   <si>
-    <t>Patellar dislocation</t>
+    <t>Pes planus</t>
   </si>
   <si>
     <t>Type II diabetes mellitus</t>
@@ -1554,7 +1554,7 @@
     <t>Rhizomelic leg shortening</t>
   </si>
   <si>
-    <t>Pes planus</t>
+    <t>Polydactyly</t>
   </si>
   <si>
     <t>Sideroblastic anemia</t>
@@ -1623,7 +1623,7 @@
     <t>Short femoral neck</t>
   </si>
   <si>
-    <t>Polydactyly</t>
+    <t>Postaxial hand polydactyly</t>
   </si>
   <si>
     <t>Stomatocytosis</t>
@@ -1680,7 +1680,7 @@
     <t>Short humerus</t>
   </si>
   <si>
-    <t>Postaxial hand polydactyly</t>
+    <t>Prominent fingertip pads</t>
   </si>
   <si>
     <t>Thrombocytopenia</t>
@@ -1728,7 +1728,7 @@
     <t>Short tibia</t>
   </si>
   <si>
-    <t>Prominent fingertip pads</t>
+    <t>Proximal placement of thumb</t>
   </si>
   <si>
     <t>Predominantly dermal neutrophilic infiltrate</t>
@@ -1773,7 +1773,7 @@
     <t>Stippled calcification proximal humeral epiphyses</t>
   </si>
   <si>
-    <t>Proximal placement of thumb</t>
+    <t>Short distal phalanx of finger</t>
   </si>
   <si>
     <t>Pyoderma gangrenosum</t>
@@ -1809,7 +1809,7 @@
     <t>Tibial bowing</t>
   </si>
   <si>
-    <t>Short distal phalanx of finger</t>
+    <t>Short metacarpal</t>
   </si>
   <si>
     <t>Rectal abscess</t>
@@ -1842,7 +1842,7 @@
     <t>Widened proximal tibial metaphyses</t>
   </si>
   <si>
-    <t>Short metacarpal</t>
+    <t>Short metatarsal</t>
   </si>
   <si>
     <t>Recurrent bacterial infections</t>
@@ -1872,7 +1872,7 @@
     <t>Myopathy</t>
   </si>
   <si>
-    <t>Short metatarsal</t>
+    <t>Short phalanx of finger</t>
   </si>
   <si>
     <t>Recurrent enteroviral infections</t>
@@ -1902,7 +1902,7 @@
     <t>Nemaline bodies</t>
   </si>
   <si>
-    <t>Short phalanx of finger</t>
+    <t>Split foot</t>
   </si>
   <si>
     <t>Recurrent infections</t>
@@ -1932,7 +1932,7 @@
     <t>Popliteal pterygium</t>
   </si>
   <si>
-    <t>Split foot</t>
+    <t>Split hand</t>
   </si>
   <si>
     <t>Recurrent otitis media</t>
@@ -1959,7 +1959,7 @@
     <t>Rhabdomyolysis</t>
   </si>
   <si>
-    <t>Split hand</t>
+    <t>Syndactyly</t>
   </si>
   <si>
     <t>Recurrent pneumonia</t>
@@ -1986,7 +1986,7 @@
     <t>Shoulder girdle muscle atrophy</t>
   </si>
   <si>
-    <t>Syndactyly</t>
+    <t>Synostosis of metacarpals/metatarsals</t>
   </si>
   <si>
     <t>Recurrent respiratory infections</t>
@@ -2013,7 +2013,7 @@
     <t>Skeletal muscle atrophy</t>
   </si>
   <si>
-    <t>Synostosis of metacarpals/metatarsals</t>
+    <t>Talipes equinovalgus</t>
   </si>
   <si>
     <t>Recurrent sinusitis</t>
@@ -2037,36 +2037,39 @@
     <t>Skeletal muscle hypertrophy</t>
   </si>
   <si>
-    <t>Talipes equinovalgus</t>
+    <t>Talipes equinovarus</t>
   </si>
   <si>
     <t>Reticulocytosis</t>
   </si>
   <si>
+    <t>Metabolic acidosis</t>
+  </si>
+  <si>
+    <t>Ventriculomegaly</t>
+  </si>
+  <si>
+    <t>Thin upper lip vermilion</t>
+  </si>
+  <si>
+    <t>Proptosis</t>
+  </si>
+  <si>
+    <t>Vascular skin abnormality</t>
+  </si>
+  <si>
+    <t>Type 1 muscle fiber predominance</t>
+  </si>
+  <si>
+    <t>Tapered finger</t>
+  </si>
+  <si>
+    <t>Schistocytosis</t>
+  </si>
+  <si>
     <t>Metabolic ketoacidosis</t>
   </si>
   <si>
-    <t>Ventriculomegaly</t>
-  </si>
-  <si>
-    <t>Thin upper lip vermilion</t>
-  </si>
-  <si>
-    <t>Proptosis</t>
-  </si>
-  <si>
-    <t>Vascular skin abnormality</t>
-  </si>
-  <si>
-    <t>Type 1 muscle fiber predominance</t>
-  </si>
-  <si>
-    <t>Talipes equinovarus</t>
-  </si>
-  <si>
-    <t>Schistocytosis</t>
-  </si>
-  <si>
     <t>Trigonocephaly</t>
   </si>
   <si>
@@ -2079,7 +2082,7 @@
     <t>Type 2 muscle fiber predominance</t>
   </si>
   <si>
-    <t>Tapered finger</t>
+    <t>Triphalangeal thumb</t>
   </si>
   <si>
     <t>Seborrheic dermatitis</t>
@@ -2092,9 +2095,6 @@
   </si>
   <si>
     <t>Upper limb muscle hypertrophy</t>
-  </si>
-  <si>
-    <t>Triphalangeal thumb</t>
   </si>
   <si>
     <t>Verrucae</t>
@@ -4609,7 +4609,7 @@
       <c r="Z33" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="AA33" s="2" t="s">
+      <c r="AA33" s="1" t="s">
         <v>675</v>
       </c>
     </row>
@@ -4640,52 +4640,51 @@
       <c r="Z34" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="AA34" s="2"/>
+      <c r="AA34" s="2" t="s">
+        <v>683</v>
+      </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="C35" s="2"/>
       <c r="F35" s="2" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
       <c r="V35" s="2"/>
       <c r="W35" s="2" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="Z35" s="2" t="s">
-        <v>688</v>
-      </c>
-      <c r="AA35" s="2"/>
+        <v>689</v>
+      </c>
+      <c r="AA35" s="1"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="C36" s="3"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>691</v>
-      </c>
-      <c r="W36" s="2" t="s">
         <v>692</v>
       </c>
       <c r="Z36" s="2" t="s">
         <v>693</v>
       </c>
-      <c r="AA36" s="2"/>
+      <c r="AA36" s="1"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="C37" s="3"/>
@@ -4699,7 +4698,7 @@
       <c r="S37" s="2" t="s">
         <v>696</v>
       </c>
-      <c r="AA37" s="2"/>
+      <c r="AA37" s="1"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="E38" s="2"/>
@@ -4710,7 +4709,7 @@
         <v>698</v>
       </c>
       <c r="Z38" s="2"/>
-      <c r="AA38" s="2"/>
+      <c r="AA38" s="1"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="E39" s="2"/>

--- a/underlying_hpo_struct.xlsx
+++ b/underlying_hpo_struct.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="708">
   <si>
     <t>Perinatal History</t>
   </si>
@@ -423,6 +423,9 @@
     <t>Conjugated hyperbilirubinemia</t>
   </si>
   <si>
+    <t>Failure to thrive</t>
+  </si>
+  <si>
     <t>Attention deficit hyperactivity disorder</t>
   </si>
   <si>
@@ -501,870 +504,885 @@
     <t>Decreased adenosylcobalamin</t>
   </si>
   <si>
+    <t>Growth delay</t>
+  </si>
+  <si>
+    <t>Autistic behavior</t>
+  </si>
+  <si>
+    <t>Chorea</t>
+  </si>
+  <si>
+    <t>Aplasia/Hypoplasia of the cerebellar vermis</t>
+  </si>
+  <si>
+    <t>Decreased sensory nerve conduction velocity</t>
+  </si>
+  <si>
+    <t>Brachycephaly</t>
+  </si>
+  <si>
+    <t>Cerebral visual impairment</t>
+  </si>
+  <si>
+    <t>Low-set ears</t>
+  </si>
+  <si>
+    <t>Laryngeal stenosis</t>
+  </si>
+  <si>
+    <t>Cyanosis</t>
+  </si>
+  <si>
+    <t>Conotruncal defect</t>
+  </si>
+  <si>
+    <t>Arrhythmia</t>
+  </si>
+  <si>
+    <t>Cholelithiasis</t>
+  </si>
+  <si>
+    <t>Dysphagia</t>
+  </si>
+  <si>
+    <t>Hematuria</t>
+  </si>
+  <si>
+    <t>Hyperplastic labia majora</t>
+  </si>
+  <si>
+    <t>Axillary freckling</t>
+  </si>
+  <si>
+    <t>Hyperconvex fingernails</t>
+  </si>
+  <si>
+    <t>Centrally nucleated skeletal muscle fibers</t>
+  </si>
+  <si>
+    <t>Barrel-shaped chest</t>
+  </si>
+  <si>
+    <t>Kyphoscoliosis</t>
+  </si>
+  <si>
+    <t>Fibular hypoplasia</t>
+  </si>
+  <si>
+    <t>Broad thumb</t>
+  </si>
+  <si>
+    <t>Hypergonadotropic hypogonadism</t>
+  </si>
+  <si>
+    <t>Epistaxis</t>
+  </si>
+  <si>
+    <t>Decreased circulating IgA level</t>
+  </si>
+  <si>
+    <t>Decreased methylcobalamin</t>
+  </si>
+  <si>
+    <t>Hydrops fetalis</t>
+  </si>
+  <si>
+    <t>Cognitive impairment</t>
+  </si>
+  <si>
+    <t>Dyskinesia</t>
+  </si>
+  <si>
+    <t>Aplasia/Hypoplasia of the cerebellum</t>
+  </si>
+  <si>
+    <t>Demyelinating peripheral neuropathy</t>
+  </si>
+  <si>
+    <t>Choanal atresia</t>
+  </si>
+  <si>
+    <t>Coloboma</t>
+  </si>
+  <si>
+    <t>Microtia</t>
+  </si>
+  <si>
+    <t>Neck flexor weakness</t>
+  </si>
+  <si>
+    <t>Desquamative interstitial pneumonitis</t>
+  </si>
+  <si>
+    <t>Dextrocardia</t>
+  </si>
+  <si>
+    <t>Arteriovenous malformation</t>
+  </si>
+  <si>
+    <t>Cholestasis</t>
+  </si>
+  <si>
+    <t>Esophageal atresia</t>
+  </si>
+  <si>
+    <t>Horseshoe kidney</t>
+  </si>
+  <si>
+    <t>Hypoplasia of the uterus</t>
+  </si>
+  <si>
+    <t>Cafe-au-lait spot</t>
+  </si>
+  <si>
+    <t>Hypertrichosis</t>
+  </si>
+  <si>
+    <t>Deposits immunoreactive to beta-amyloid protein</t>
+  </si>
+  <si>
+    <t>Bifid sternum</t>
+  </si>
+  <si>
+    <t>Kyphosis</t>
+  </si>
+  <si>
+    <t>Fibular overgrowth</t>
+  </si>
+  <si>
+    <t>Carpal bone hypoplasia</t>
+  </si>
+  <si>
+    <t>Hyperparathyroidism</t>
+  </si>
+  <si>
+    <t>Gastrointestinal hemorrhage</t>
+  </si>
+  <si>
+    <t>Decreased circulating IgG level</t>
+  </si>
+  <si>
+    <t>Elevated circulating creatine kinase concentration</t>
+  </si>
+  <si>
+    <t>Increased nuchal translucency</t>
+  </si>
+  <si>
+    <t>Delayed speech and language development</t>
+  </si>
+  <si>
+    <t>Dysmetria</t>
+  </si>
+  <si>
+    <t>Brain stem compression</t>
+  </si>
+  <si>
+    <t>Distal sensory impairment</t>
+  </si>
+  <si>
+    <t>Cleft lip</t>
+  </si>
+  <si>
+    <t>Conjunctivitis</t>
+  </si>
+  <si>
+    <t>Mild hearing impairment</t>
+  </si>
+  <si>
+    <t>Neck muscle weakness</t>
+  </si>
+  <si>
+    <t>Dyspnea</t>
+  </si>
+  <si>
+    <t>Dilated cardiomyopathy</t>
+  </si>
+  <si>
+    <t>Atrioventricular block</t>
+  </si>
+  <si>
+    <t>Chronic diarrhea</t>
+  </si>
+  <si>
+    <t>Feeding difficulties</t>
+  </si>
+  <si>
+    <t>Hydronephrosis</t>
+  </si>
+  <si>
+    <t>Hypoplastic labia majora</t>
+  </si>
+  <si>
+    <t>Cutis laxa</t>
+  </si>
+  <si>
+    <t>Keratosis pilaris</t>
+  </si>
+  <si>
+    <t>Distal arthrogryposis</t>
+  </si>
+  <si>
+    <t>Broad clavicles</t>
+  </si>
+  <si>
+    <t>Lumbar hyperlordosis</t>
+  </si>
+  <si>
+    <t>Flat capital femoral epiphysis</t>
+  </si>
+  <si>
+    <t>Clubbing of fingers</t>
+  </si>
+  <si>
+    <t>Hyperphosphatemia</t>
+  </si>
+  <si>
+    <t>Hemolytic anemia</t>
+  </si>
+  <si>
+    <t>Decreased circulating total IgM</t>
+  </si>
+  <si>
+    <t>Elevated circulating creatinine concentration</t>
+  </si>
+  <si>
+    <t>Infantile spasms</t>
+  </si>
+  <si>
+    <t>Depression</t>
+  </si>
+  <si>
+    <t>Dystonia</t>
+  </si>
+  <si>
+    <t>Cerebellar atrophy</t>
+  </si>
+  <si>
+    <t>Dysarthria</t>
+  </si>
+  <si>
+    <t>Cleft palate</t>
+  </si>
+  <si>
+    <t>Corneal dystrophy</t>
+  </si>
+  <si>
+    <t>Posteriorly rotated ears</t>
+  </si>
+  <si>
+    <t>Neck pterygia</t>
+  </si>
+  <si>
+    <t>Hyperventilation</t>
+  </si>
+  <si>
+    <t>Double outlet right ventricle</t>
+  </si>
+  <si>
+    <t>Bradycardia</t>
+  </si>
+  <si>
+    <t>Cirrhosis</t>
+  </si>
+  <si>
+    <t>Gastroesophageal reflux</t>
+  </si>
+  <si>
+    <t>Hypospadias</t>
+  </si>
+  <si>
+    <t>Inguinal hernia</t>
+  </si>
+  <si>
+    <t>Eczema</t>
+  </si>
+  <si>
+    <t>Long eyelashes</t>
+  </si>
+  <si>
+    <t>Distal lower limb amyotrophy</t>
+  </si>
+  <si>
+    <t>Cupped ribs</t>
+  </si>
+  <si>
+    <t>Myelomeningocele</t>
+  </si>
+  <si>
+    <t>Genu valgum</t>
+  </si>
+  <si>
+    <t>Clubbing of toes</t>
+  </si>
+  <si>
+    <t>Hyperthyroidism</t>
+  </si>
+  <si>
+    <t>Hypochromic anemia</t>
+  </si>
+  <si>
+    <t>Decreased proportion of CD4-positive helper T cells</t>
+  </si>
+  <si>
+    <t>Elevated circulating glutaric acid concentration</t>
+  </si>
+  <si>
+    <t>Intrauterine growth retardation</t>
+  </si>
+  <si>
+    <t>Developmental regression</t>
+  </si>
+  <si>
+    <t>Gait disturbance</t>
+  </si>
+  <si>
+    <t>Cerebral cortical atrophy</t>
+  </si>
+  <si>
+    <t>Encephalopathy</t>
+  </si>
+  <si>
+    <t>Coarse facial features</t>
+  </si>
+  <si>
+    <t>Corneal erosion</t>
+  </si>
+  <si>
+    <t>Preauricular pit</t>
+  </si>
+  <si>
+    <t>Shield chest</t>
+  </si>
+  <si>
+    <t>Hypoventilation</t>
+  </si>
+  <si>
+    <t>Hypertrophic cardiomyopathy</t>
+  </si>
+  <si>
+    <t>Carotid artery calcification</t>
+  </si>
+  <si>
+    <t>Diastasis recti</t>
+  </si>
+  <si>
+    <t>Hepatomegaly</t>
+  </si>
+  <si>
+    <t>Multiple glomerular cysts</t>
+  </si>
+  <si>
+    <t>Micropenis</t>
+  </si>
+  <si>
+    <t>Erythema</t>
+  </si>
+  <si>
+    <t>Low anterior hairline</t>
+  </si>
+  <si>
+    <t>Distal muscle weakness</t>
+  </si>
+  <si>
+    <t>Enlarged thorax</t>
+  </si>
+  <si>
+    <t>Narrow iliac wing</t>
+  </si>
+  <si>
+    <t>Hypoplasia of the ulna</t>
+  </si>
+  <si>
+    <t>Drumstick terminal phalanges</t>
+  </si>
+  <si>
+    <t>Hypocalcemia</t>
+  </si>
+  <si>
+    <t>Hypoplastic anemia</t>
+  </si>
+  <si>
+    <t>Eczematoid dermatitis</t>
+  </si>
+  <si>
+    <t>Elevated hepatic transaminase</t>
+  </si>
+  <si>
+    <t>Low APGAR score</t>
+  </si>
+  <si>
+    <t>Dyscalculia</t>
+  </si>
+  <si>
+    <t>Hemiplegia</t>
+  </si>
+  <si>
+    <t>CNS demyelination</t>
+  </si>
+  <si>
+    <t>Headache</t>
+  </si>
+  <si>
+    <t>Craniosynostosis</t>
+  </si>
+  <si>
+    <t>Corneal opacity</t>
+  </si>
+  <si>
+    <t>Protruding ear</t>
+  </si>
+  <si>
+    <t>Short neck</t>
+  </si>
+  <si>
+    <t>Hypoxemia</t>
+  </si>
+  <si>
+    <t>Hypoplastic left heart</t>
+  </si>
+  <si>
+    <t>Carotid artery dissection</t>
+  </si>
+  <si>
+    <t>Exocrine pancreatic insufficiency</t>
+  </si>
+  <si>
+    <t>Inflammation of the large intestine</t>
+  </si>
+  <si>
+    <t>Nephrolithiasis</t>
+  </si>
+  <si>
+    <t>Precocious puberty</t>
+  </si>
+  <si>
+    <t>Fragile skin</t>
+  </si>
+  <si>
+    <t>Lumbosacral hirsutism</t>
+  </si>
+  <si>
+    <t>Elbow flexion contracture</t>
+  </si>
+  <si>
+    <t>Flaring of rib cage</t>
+  </si>
+  <si>
+    <t>Platyspondyly</t>
+  </si>
+  <si>
+    <t>Mesomelia</t>
+  </si>
+  <si>
+    <t>Foot monodactyly</t>
+  </si>
+  <si>
+    <t>Hypoparathyroidism</t>
+  </si>
+  <si>
+    <t>Macrocytic anemia</t>
+  </si>
+  <si>
+    <t>Folliculitis</t>
+  </si>
+  <si>
+    <t>Elevated plasma branched chain amino acids</t>
+  </si>
+  <si>
+    <t>Nonimmune hydrops fetalis</t>
+  </si>
+  <si>
+    <t>Dyslexia</t>
+  </si>
+  <si>
+    <t>Hyperreflexia</t>
+  </si>
+  <si>
+    <t>CNS hypomyelination</t>
+  </si>
+  <si>
+    <t>Increased intracranial pressure</t>
+  </si>
+  <si>
+    <t>Dental enamel pits</t>
+  </si>
+  <si>
+    <t>Developmental cataract</t>
+  </si>
+  <si>
+    <t>Sensorineural hearing impairment</t>
+  </si>
+  <si>
+    <t>Supernumerary nipple</t>
+  </si>
+  <si>
+    <t>Interstitial pneumonitis</t>
+  </si>
+  <si>
+    <t>Mitral stenosis</t>
+  </si>
+  <si>
+    <t>Coarctation of aorta</t>
+  </si>
+  <si>
+    <t>Hepatic cysts</t>
+  </si>
+  <si>
+    <t>Intrahepatic biliary atresia</t>
+  </si>
+  <si>
+    <t>Polycystic kidney dysplasia</t>
+  </si>
+  <si>
+    <t>Shawl scrotum</t>
+  </si>
+  <si>
+    <t>Hyperextensible skin</t>
+  </si>
+  <si>
+    <t>Nail dystrophy</t>
+  </si>
+  <si>
+    <t>Fatty replacement of skeletal muscle</t>
+  </si>
+  <si>
+    <t>Pectus carinatum</t>
+  </si>
+  <si>
+    <t>Scoliosis</t>
+  </si>
+  <si>
+    <t>Mesomelic arm shortening</t>
+  </si>
+  <si>
+    <t>Hammertoe</t>
+  </si>
+  <si>
+    <t>Hypophosphatemia</t>
+  </si>
+  <si>
+    <t>Megaloblastic anemia</t>
+  </si>
+  <si>
+    <t>Hashimoto thyroiditis</t>
+  </si>
+  <si>
+    <t>Ethylmalonic aciduria</t>
+  </si>
+  <si>
+    <t>Oligohydramnios</t>
+  </si>
+  <si>
+    <t>Global developmental delay</t>
+  </si>
+  <si>
+    <t>Hypokinesia</t>
+  </si>
+  <si>
+    <t>Cortical dysplasia</t>
+  </si>
+  <si>
+    <t>Lhermitte's sign</t>
+  </si>
+  <si>
+    <t>Dental malocclusion</t>
+  </si>
+  <si>
+    <t>Downslanted palpebral fissures</t>
+  </si>
+  <si>
+    <t>Unilateral deafness</t>
+  </si>
+  <si>
+    <t>Webbed neck</t>
+  </si>
+  <si>
+    <t>Intraalveolar phospholipid accumulation</t>
+  </si>
+  <si>
+    <t>Mitral valve prolapse</t>
+  </si>
+  <si>
+    <t>Cutis marmorata</t>
+  </si>
+  <si>
+    <t>Hepatic fibrosis</t>
+  </si>
+  <si>
+    <t>Laryngomalacia</t>
+  </si>
+  <si>
+    <t>Polyuria</t>
+  </si>
+  <si>
+    <t>Uterine prolapse</t>
+  </si>
+  <si>
+    <t>Hyperpigmentation of the skin</t>
+  </si>
+  <si>
+    <t>Sparse body hair</t>
+  </si>
+  <si>
+    <t>Flexion contracture</t>
+  </si>
+  <si>
+    <t>Pectus excavatum</t>
+  </si>
+  <si>
+    <t>Shallow acetabular fossae</t>
+  </si>
+  <si>
+    <t>Mesomelic leg shortening</t>
+  </si>
+  <si>
+    <t>Hand monodactyly</t>
+  </si>
+  <si>
+    <t>Hypothyroidism</t>
+  </si>
+  <si>
+    <t>Menorrhagia</t>
+  </si>
+  <si>
+    <t>Hemophagocytosis</t>
+  </si>
+  <si>
+    <t>Generalized aminoaciduria</t>
+  </si>
+  <si>
+    <t>Omphalocele</t>
+  </si>
+  <si>
+    <t>Hyperactivity</t>
+  </si>
+  <si>
+    <t>Hyporeflexia</t>
+  </si>
+  <si>
+    <t>Cortical tubers</t>
+  </si>
+  <si>
+    <t>Migraine</t>
+  </si>
+  <si>
+    <t>Depressed nasal bridge</t>
+  </si>
+  <si>
+    <t>Ectopia lentis</t>
+  </si>
+  <si>
+    <t>Wide intermamillary distance</t>
+  </si>
+  <si>
+    <t>Intralobular septal thickening</t>
+  </si>
+  <si>
+    <t>Noncompaction cardiomyopathy</t>
+  </si>
+  <si>
+    <t>Hypertension</t>
+  </si>
+  <si>
+    <t>Malformation of the hepatic ductal plate</t>
+  </si>
+  <si>
+    <t>Nausea</t>
+  </si>
+  <si>
+    <t>Proteinuria</t>
+  </si>
+  <si>
+    <t>Hypohidrosis</t>
+  </si>
+  <si>
+    <t>Sparse eyebrow</t>
+  </si>
+  <si>
+    <t>Generalized muscle weakness</t>
+  </si>
+  <si>
+    <t>Prominent sternum</t>
+  </si>
+  <si>
+    <t>Spina bifida</t>
+  </si>
+  <si>
+    <t>Mesomelic short stature</t>
+  </si>
+  <si>
+    <t>Large carpal bones</t>
+  </si>
+  <si>
+    <t>Lymphedema</t>
+  </si>
+  <si>
+    <t>Microangiopathic hemolytic anemia</t>
+  </si>
+  <si>
+    <t>Immunodeficiency</t>
+  </si>
+  <si>
+    <t>Glutaric aciduria</t>
+  </si>
+  <si>
+    <t>Polyhydramnios</t>
+  </si>
+  <si>
+    <t>Impaired visuospatial constructive cognition</t>
+  </si>
+  <si>
+    <t>Inability to walk</t>
+  </si>
+  <si>
+    <t>Delayed CNS myelination</t>
+  </si>
+  <si>
+    <t>Mononeuropathy</t>
+  </si>
+  <si>
+    <t>Depressed nasal tip</t>
+  </si>
+  <si>
+    <t>Epicanthus</t>
+  </si>
+  <si>
+    <t>Neonatal respiratory distress</t>
+  </si>
+  <si>
+    <t>Patent foramen ovale</t>
+  </si>
+  <si>
+    <t>Mitral regurgitation</t>
+  </si>
+  <si>
+    <t>Pancreatic cysts</t>
+  </si>
+  <si>
+    <t>Pancreatitis</t>
+  </si>
+  <si>
+    <t>Proximal tubulopathy</t>
+  </si>
+  <si>
+    <t>Hypopigmentation of the skin</t>
+  </si>
+  <si>
+    <t>Sparse eyelashes</t>
+  </si>
+  <si>
+    <t>Gowers sign</t>
+  </si>
+  <si>
+    <t>Rib fusion</t>
+  </si>
+  <si>
+    <t>Spina bifida occulta</t>
+  </si>
+  <si>
+    <t>Patellar hypoplasia</t>
+  </si>
+  <si>
+    <t>Large hands</t>
+  </si>
+  <si>
+    <t>Maturity-onset diabetes of the young</t>
+  </si>
+  <si>
+    <t>Microcytic anemia</t>
+  </si>
+  <si>
+    <t>Leukopenia</t>
+  </si>
+  <si>
+    <t>Glycosuria</t>
+  </si>
+  <si>
+    <t>Postnatal growth retardation</t>
+  </si>
+  <si>
+    <t>Intellectual disability</t>
+  </si>
+  <si>
+    <t>Incoordination</t>
+  </si>
+  <si>
+    <t>Dysgenesis of the basal ganglia</t>
+  </si>
+  <si>
+    <t>Optic ataxia</t>
+  </si>
+  <si>
+    <t>Dolichocephaly</t>
+  </si>
+  <si>
+    <t>Esotropia</t>
+  </si>
+  <si>
+    <t>Pleural effusion</t>
+  </si>
+  <si>
+    <t>Pericardial effusion</t>
+  </si>
+  <si>
+    <t>Patent ductus arteriosus</t>
+  </si>
+  <si>
+    <t>Pancreatic fibrosis</t>
+  </si>
+  <si>
+    <t>Pyloric stenosis</t>
+  </si>
+  <si>
+    <t>Renal agenesis</t>
+  </si>
+  <si>
+    <t>Ichthyosis</t>
+  </si>
+  <si>
+    <t>Sparse hair</t>
+  </si>
+  <si>
+    <t>Hypertonia</t>
+  </si>
+  <si>
+    <t>Short clavicles</t>
+  </si>
+  <si>
+    <t>Spinal canal stenosis</t>
+  </si>
+  <si>
+    <t>Radioulnar synostosis</t>
+  </si>
+  <si>
+    <t>Metatarsus adductus</t>
+  </si>
+  <si>
+    <t>Rickets</t>
+  </si>
+  <si>
+    <t>Pancytopenia</t>
+  </si>
+  <si>
+    <t>Lymphadenopathy</t>
+  </si>
+  <si>
+    <t>Homocystinuria</t>
+  </si>
+  <si>
+    <t>Premature birth</t>
+  </si>
+  <si>
+    <t>Lethargy</t>
+  </si>
+  <si>
+    <t>Involuntary movements</t>
+  </si>
+  <si>
     <t>Encephalocele</t>
   </si>
   <si>
-    <t>Autistic behavior</t>
-  </si>
-  <si>
-    <t>Chorea</t>
-  </si>
-  <si>
-    <t>Aplasia/Hypoplasia of the cerebellar vermis</t>
-  </si>
-  <si>
-    <t>Decreased sensory nerve conduction velocity</t>
-  </si>
-  <si>
-    <t>Brachycephaly</t>
-  </si>
-  <si>
-    <t>Cerebral visual impairment</t>
-  </si>
-  <si>
-    <t>Low-set ears</t>
-  </si>
-  <si>
-    <t>Laryngeal stenosis</t>
-  </si>
-  <si>
-    <t>Cyanosis</t>
-  </si>
-  <si>
-    <t>Conotruncal defect</t>
-  </si>
-  <si>
-    <t>Arrhythmia</t>
-  </si>
-  <si>
-    <t>Cholelithiasis</t>
-  </si>
-  <si>
-    <t>Dysphagia</t>
-  </si>
-  <si>
-    <t>Hematuria</t>
-  </si>
-  <si>
-    <t>Hyperplastic labia majora</t>
-  </si>
-  <si>
-    <t>Axillary freckling</t>
-  </si>
-  <si>
-    <t>Hyperconvex fingernails</t>
-  </si>
-  <si>
-    <t>Centrally nucleated skeletal muscle fibers</t>
-  </si>
-  <si>
-    <t>Barrel-shaped chest</t>
-  </si>
-  <si>
-    <t>Kyphoscoliosis</t>
-  </si>
-  <si>
-    <t>Fibular hypoplasia</t>
-  </si>
-  <si>
-    <t>Broad thumb</t>
-  </si>
-  <si>
-    <t>Hypergonadotropic hypogonadism</t>
-  </si>
-  <si>
-    <t>Epistaxis</t>
-  </si>
-  <si>
-    <t>Decreased circulating IgA level</t>
-  </si>
-  <si>
-    <t>Decreased methylcobalamin</t>
-  </si>
-  <si>
-    <t>Failure to thrive</t>
-  </si>
-  <si>
-    <t>Cognitive impairment</t>
-  </si>
-  <si>
-    <t>Dyskinesia</t>
-  </si>
-  <si>
-    <t>Aplasia/Hypoplasia of the cerebellum</t>
-  </si>
-  <si>
-    <t>Demyelinating peripheral neuropathy</t>
-  </si>
-  <si>
-    <t>Choanal atresia</t>
-  </si>
-  <si>
-    <t>Coloboma</t>
-  </si>
-  <si>
-    <t>Microtia</t>
-  </si>
-  <si>
-    <t>Neck flexor weakness</t>
-  </si>
-  <si>
-    <t>Desquamative interstitial pneumonitis</t>
-  </si>
-  <si>
-    <t>Dextrocardia</t>
-  </si>
-  <si>
-    <t>Arteriovenous malformation</t>
-  </si>
-  <si>
-    <t>Cholestasis</t>
-  </si>
-  <si>
-    <t>Esophageal atresia</t>
-  </si>
-  <si>
-    <t>Horseshoe kidney</t>
-  </si>
-  <si>
-    <t>Hypoplasia of the uterus</t>
-  </si>
-  <si>
-    <t>Cafe-au-lait spot</t>
-  </si>
-  <si>
-    <t>Hypertrichosis</t>
-  </si>
-  <si>
-    <t>Deposits immunoreactive to beta-amyloid protein</t>
-  </si>
-  <si>
-    <t>Bifid sternum</t>
-  </si>
-  <si>
-    <t>Kyphosis</t>
-  </si>
-  <si>
-    <t>Fibular overgrowth</t>
-  </si>
-  <si>
-    <t>Carpal bone hypoplasia</t>
-  </si>
-  <si>
-    <t>Hyperparathyroidism</t>
-  </si>
-  <si>
-    <t>Gastrointestinal hemorrhage</t>
-  </si>
-  <si>
-    <t>Decreased circulating IgG level</t>
-  </si>
-  <si>
-    <t>Elevated circulating creatine kinase concentration</t>
-  </si>
-  <si>
-    <t>Growth delay</t>
-  </si>
-  <si>
-    <t>Delayed speech and language development</t>
-  </si>
-  <si>
-    <t>Dysmetria</t>
-  </si>
-  <si>
-    <t>Brain stem compression</t>
-  </si>
-  <si>
-    <t>Distal sensory impairment</t>
-  </si>
-  <si>
-    <t>Cleft lip</t>
-  </si>
-  <si>
-    <t>Conjunctivitis</t>
-  </si>
-  <si>
-    <t>Mild hearing impairment</t>
-  </si>
-  <si>
-    <t>Neck muscle weakness</t>
-  </si>
-  <si>
-    <t>Dyspnea</t>
-  </si>
-  <si>
-    <t>Dilated cardiomyopathy</t>
-  </si>
-  <si>
-    <t>Atrioventricular block</t>
-  </si>
-  <si>
-    <t>Chronic diarrhea</t>
-  </si>
-  <si>
-    <t>Feeding difficulties</t>
-  </si>
-  <si>
-    <t>Hydronephrosis</t>
-  </si>
-  <si>
-    <t>Hypoplastic labia majora</t>
-  </si>
-  <si>
-    <t>Cutis laxa</t>
-  </si>
-  <si>
-    <t>Keratosis pilaris</t>
-  </si>
-  <si>
-    <t>Distal arthrogryposis</t>
-  </si>
-  <si>
-    <t>Broad clavicles</t>
-  </si>
-  <si>
-    <t>Lumbar hyperlordosis</t>
-  </si>
-  <si>
-    <t>Flat capital femoral epiphysis</t>
-  </si>
-  <si>
-    <t>Clubbing of fingers</t>
-  </si>
-  <si>
-    <t>Hyperphosphatemia</t>
-  </si>
-  <si>
-    <t>Hemolytic anemia</t>
-  </si>
-  <si>
-    <t>Decreased circulating total IgM</t>
-  </si>
-  <si>
-    <t>Elevated circulating creatinine concentration</t>
-  </si>
-  <si>
-    <t>Hydrops fetalis</t>
-  </si>
-  <si>
-    <t>Depression</t>
-  </si>
-  <si>
-    <t>Dystonia</t>
-  </si>
-  <si>
-    <t>Cerebellar atrophy</t>
-  </si>
-  <si>
-    <t>Dysarthria</t>
-  </si>
-  <si>
-    <t>Cleft palate</t>
-  </si>
-  <si>
-    <t>Corneal dystrophy</t>
-  </si>
-  <si>
-    <t>Posteriorly rotated ears</t>
-  </si>
-  <si>
-    <t>Neck pterygia</t>
-  </si>
-  <si>
-    <t>Hyperventilation</t>
-  </si>
-  <si>
-    <t>Double outlet right ventricle</t>
-  </si>
-  <si>
-    <t>Bradycardia</t>
-  </si>
-  <si>
-    <t>Cirrhosis</t>
-  </si>
-  <si>
-    <t>Gastroesophageal reflux</t>
-  </si>
-  <si>
-    <t>Hypospadias</t>
-  </si>
-  <si>
-    <t>Eczema</t>
-  </si>
-  <si>
-    <t>Long eyelashes</t>
-  </si>
-  <si>
-    <t>Distal lower limb amyotrophy</t>
-  </si>
-  <si>
-    <t>Cupped ribs</t>
-  </si>
-  <si>
-    <t>Myelomeningocele</t>
-  </si>
-  <si>
-    <t>Genu valgum</t>
-  </si>
-  <si>
-    <t>Clubbing of toes</t>
-  </si>
-  <si>
-    <t>Hyperthyroidism</t>
-  </si>
-  <si>
-    <t>Hypochromic anemia</t>
-  </si>
-  <si>
-    <t>Decreased proportion of CD4-positive helper T cells</t>
-  </si>
-  <si>
-    <t>Elevated circulating glutaric acid concentration</t>
-  </si>
-  <si>
-    <t>Increased nuchal translucency</t>
-  </si>
-  <si>
-    <t>Developmental regression</t>
-  </si>
-  <si>
-    <t>Gait disturbance</t>
-  </si>
-  <si>
-    <t>Cerebral cortical atrophy</t>
-  </si>
-  <si>
-    <t>Encephalopathy</t>
-  </si>
-  <si>
-    <t>Coarse facial features</t>
-  </si>
-  <si>
-    <t>Corneal erosion</t>
-  </si>
-  <si>
-    <t>Preauricular pit</t>
-  </si>
-  <si>
-    <t>Shield chest</t>
-  </si>
-  <si>
-    <t>Hypoventilation</t>
-  </si>
-  <si>
-    <t>Hypertrophic cardiomyopathy</t>
-  </si>
-  <si>
-    <t>Carotid artery calcification</t>
-  </si>
-  <si>
-    <t>Diastasis recti</t>
-  </si>
-  <si>
-    <t>Hepatomegaly</t>
-  </si>
-  <si>
-    <t>Multiple glomerular cysts</t>
-  </si>
-  <si>
-    <t>Inguinal hernia</t>
-  </si>
-  <si>
-    <t>Erythema</t>
-  </si>
-  <si>
-    <t>Low anterior hairline</t>
-  </si>
-  <si>
-    <t>Distal muscle weakness</t>
-  </si>
-  <si>
-    <t>Enlarged thorax</t>
-  </si>
-  <si>
-    <t>Narrow iliac wing</t>
-  </si>
-  <si>
-    <t>Hypoplasia of the ulna</t>
-  </si>
-  <si>
-    <t>Drumstick terminal phalanges</t>
-  </si>
-  <si>
-    <t>Hypocalcemia</t>
-  </si>
-  <si>
-    <t>Hypoplastic anemia</t>
-  </si>
-  <si>
-    <t>Elevated hepatic transaminase</t>
-  </si>
-  <si>
-    <t>Infantile spasms</t>
-  </si>
-  <si>
-    <t>Hemiplegia</t>
-  </si>
-  <si>
-    <t>CNS demyelination</t>
-  </si>
-  <si>
-    <t>Headache</t>
-  </si>
-  <si>
-    <t>Craniosynostosis</t>
-  </si>
-  <si>
-    <t>Corneal opacity</t>
-  </si>
-  <si>
-    <t>Protruding ear</t>
-  </si>
-  <si>
-    <t>Short neck</t>
-  </si>
-  <si>
-    <t>Hypoxemia</t>
-  </si>
-  <si>
-    <t>Hypoplastic left heart</t>
-  </si>
-  <si>
-    <t>Carotid artery dissection</t>
-  </si>
-  <si>
-    <t>Exocrine pancreatic insufficiency</t>
-  </si>
-  <si>
-    <t>Inflammation of the large intestine</t>
-  </si>
-  <si>
-    <t>Nephrolithiasis</t>
-  </si>
-  <si>
-    <t>Micropenis</t>
-  </si>
-  <si>
-    <t>Fragile skin</t>
-  </si>
-  <si>
-    <t>Lumbosacral hirsutism</t>
-  </si>
-  <si>
-    <t>Elbow flexion contracture</t>
-  </si>
-  <si>
-    <t>Flaring of rib cage</t>
-  </si>
-  <si>
-    <t>Platyspondyly</t>
-  </si>
-  <si>
-    <t>Mesomelia</t>
-  </si>
-  <si>
-    <t>Foot monodactyly</t>
-  </si>
-  <si>
-    <t>Hypoparathyroidism</t>
-  </si>
-  <si>
-    <t>Macrocytic anemia</t>
-  </si>
-  <si>
-    <t>Eczematoid dermatitis</t>
-  </si>
-  <si>
-    <t>Elevated plasma branched chain amino acids</t>
-  </si>
-  <si>
-    <t>Intrauterine growth retardation</t>
-  </si>
-  <si>
-    <t>Dyscalculia</t>
-  </si>
-  <si>
-    <t>Hyperreflexia</t>
-  </si>
-  <si>
-    <t>CNS hypomyelination</t>
-  </si>
-  <si>
-    <t>Increased intracranial pressure</t>
-  </si>
-  <si>
-    <t>Dental enamel pits</t>
-  </si>
-  <si>
-    <t>Developmental cataract</t>
-  </si>
-  <si>
-    <t>Sensorineural hearing impairment</t>
-  </si>
-  <si>
-    <t>Supernumerary nipple</t>
-  </si>
-  <si>
-    <t>Interstitial pneumonitis</t>
-  </si>
-  <si>
-    <t>Mitral stenosis</t>
-  </si>
-  <si>
-    <t>Coarctation of aorta</t>
-  </si>
-  <si>
-    <t>Hepatic cysts</t>
-  </si>
-  <si>
-    <t>Intrahepatic biliary atresia</t>
-  </si>
-  <si>
-    <t>Polycystic kidney dysplasia</t>
-  </si>
-  <si>
-    <t>Precocious puberty</t>
-  </si>
-  <si>
-    <t>Hyperextensible skin</t>
-  </si>
-  <si>
-    <t>Nail dystrophy</t>
-  </si>
-  <si>
-    <t>Fatty replacement of skeletal muscle</t>
-  </si>
-  <si>
-    <t>Pectus carinatum</t>
-  </si>
-  <si>
-    <t>Scoliosis</t>
-  </si>
-  <si>
-    <t>Mesomelic arm shortening</t>
-  </si>
-  <si>
-    <t>Hammertoe</t>
-  </si>
-  <si>
-    <t>Hypophosphatemia</t>
-  </si>
-  <si>
-    <t>Megaloblastic anemia</t>
-  </si>
-  <si>
-    <t>Folliculitis</t>
-  </si>
-  <si>
-    <t>Ethylmalonic aciduria</t>
-  </si>
-  <si>
-    <t>Low APGAR score</t>
-  </si>
-  <si>
-    <t>Dyslexia</t>
-  </si>
-  <si>
-    <t>Hypokinesia</t>
-  </si>
-  <si>
-    <t>Cortical dysplasia</t>
-  </si>
-  <si>
-    <t>Lhermitte's sign</t>
-  </si>
-  <si>
-    <t>Dental malocclusion</t>
-  </si>
-  <si>
-    <t>Downslanted palpebral fissures</t>
-  </si>
-  <si>
-    <t>Unilateral deafness</t>
-  </si>
-  <si>
-    <t>Webbed neck</t>
-  </si>
-  <si>
-    <t>Intraalveolar phospholipid accumulation</t>
-  </si>
-  <si>
-    <t>Mitral valve prolapse</t>
-  </si>
-  <si>
-    <t>Cutis marmorata</t>
-  </si>
-  <si>
-    <t>Hepatic fibrosis</t>
-  </si>
-  <si>
-    <t>Laryngomalacia</t>
-  </si>
-  <si>
-    <t>Polyuria</t>
-  </si>
-  <si>
-    <t>Shawl scrotum</t>
-  </si>
-  <si>
-    <t>Hyperpigmentation of the skin</t>
-  </si>
-  <si>
-    <t>Sparse body hair</t>
-  </si>
-  <si>
-    <t>Flexion contracture</t>
-  </si>
-  <si>
-    <t>Pectus excavatum</t>
-  </si>
-  <si>
-    <t>Shallow acetabular fossae</t>
-  </si>
-  <si>
-    <t>Mesomelic leg shortening</t>
-  </si>
-  <si>
-    <t>Hand monodactyly</t>
-  </si>
-  <si>
-    <t>Hypothyroidism</t>
-  </si>
-  <si>
-    <t>Menorrhagia</t>
-  </si>
-  <si>
-    <t>Hashimoto thyroiditis</t>
-  </si>
-  <si>
-    <t>Generalized aminoaciduria</t>
-  </si>
-  <si>
-    <t>Nonimmune hydrops fetalis</t>
-  </si>
-  <si>
-    <t>Global developmental delay</t>
-  </si>
-  <si>
-    <t>Hyporeflexia</t>
-  </si>
-  <si>
-    <t>Cortical tubers</t>
-  </si>
-  <si>
-    <t>Migraine</t>
-  </si>
-  <si>
-    <t>Depressed nasal bridge</t>
-  </si>
-  <si>
-    <t>Ectopia lentis</t>
-  </si>
-  <si>
-    <t>Wide intermamillary distance</t>
-  </si>
-  <si>
-    <t>Intralobular septal thickening</t>
-  </si>
-  <si>
-    <t>Noncompaction cardiomyopathy</t>
-  </si>
-  <si>
-    <t>Hypertension</t>
-  </si>
-  <si>
-    <t>Nausea</t>
-  </si>
-  <si>
-    <t>Proteinuria</t>
-  </si>
-  <si>
-    <t>Uterine prolapse</t>
-  </si>
-  <si>
-    <t>Hypohidrosis</t>
-  </si>
-  <si>
-    <t>Sparse eyebrow</t>
-  </si>
-  <si>
-    <t>Generalized muscle weakness</t>
-  </si>
-  <si>
-    <t>Prominent sternum</t>
-  </si>
-  <si>
-    <t>Spina bifida</t>
-  </si>
-  <si>
-    <t>Mesomelic short stature</t>
-  </si>
-  <si>
-    <t>Large carpal bones</t>
-  </si>
-  <si>
-    <t>Lymphedema</t>
-  </si>
-  <si>
-    <t>Microangiopathic hemolytic anemia</t>
-  </si>
-  <si>
-    <t>Hemophagocytosis</t>
-  </si>
-  <si>
-    <t>Glutaric aciduria</t>
-  </si>
-  <si>
-    <t>Oligohydramnios</t>
-  </si>
-  <si>
-    <t>Hyperactivity</t>
-  </si>
-  <si>
-    <t>Inability to walk</t>
-  </si>
-  <si>
-    <t>Delayed CNS myelination</t>
-  </si>
-  <si>
-    <t>Mononeuropathy</t>
-  </si>
-  <si>
-    <t>Depressed nasal tip</t>
-  </si>
-  <si>
-    <t>Epicanthus</t>
-  </si>
-  <si>
-    <t>Neonatal respiratory distress</t>
-  </si>
-  <si>
-    <t>Patent foramen ovale</t>
-  </si>
-  <si>
-    <t>Mitral regurgitation</t>
-  </si>
-  <si>
-    <t>Pancreatitis</t>
-  </si>
-  <si>
-    <t>Proximal tubulopathy</t>
-  </si>
-  <si>
-    <t>Hypopigmentation of the skin</t>
-  </si>
-  <si>
-    <t>Sparse eyelashes</t>
-  </si>
-  <si>
-    <t>Gowers sign</t>
-  </si>
-  <si>
-    <t>Rib fusion</t>
-  </si>
-  <si>
-    <t>Spina bifida occulta</t>
-  </si>
-  <si>
-    <t>Patellar hypoplasia</t>
-  </si>
-  <si>
-    <t>Large hands</t>
-  </si>
-  <si>
-    <t>Maturity-onset diabetes of the young</t>
-  </si>
-  <si>
-    <t>Microcytic anemia</t>
-  </si>
-  <si>
-    <t>Immunodeficiency</t>
-  </si>
-  <si>
-    <t>Glycosuria</t>
-  </si>
-  <si>
-    <t>Omphalocele</t>
-  </si>
-  <si>
-    <t>Impaired visuospatial constructive cognition</t>
-  </si>
-  <si>
-    <t>Incoordination</t>
-  </si>
-  <si>
-    <t>Dysgenesis of the basal ganglia</t>
-  </si>
-  <si>
-    <t>Optic ataxia</t>
-  </si>
-  <si>
-    <t>Dolichocephaly</t>
-  </si>
-  <si>
-    <t>Esotropia</t>
-  </si>
-  <si>
-    <t>Pleural effusion</t>
-  </si>
-  <si>
-    <t>Pericardial effusion</t>
-  </si>
-  <si>
-    <t>Patent ductus arteriosus</t>
-  </si>
-  <si>
-    <t>Malformation of the hepatic ductal plate</t>
-  </si>
-  <si>
-    <t>Pyloric stenosis</t>
-  </si>
-  <si>
-    <t>Renal agenesis</t>
-  </si>
-  <si>
-    <t>Ichthyosis</t>
-  </si>
-  <si>
-    <t>Sparse hair</t>
-  </si>
-  <si>
-    <t>Hypertonia</t>
-  </si>
-  <si>
-    <t>Short clavicles</t>
-  </si>
-  <si>
-    <t>Spinal canal stenosis</t>
-  </si>
-  <si>
-    <t>Radioulnar synostosis</t>
-  </si>
-  <si>
-    <t>Metatarsus adductus</t>
-  </si>
-  <si>
-    <t>Rickets</t>
-  </si>
-  <si>
-    <t>Pancytopenia</t>
-  </si>
-  <si>
-    <t>Leukopenia</t>
-  </si>
-  <si>
-    <t>Homocystinuria</t>
-  </si>
-  <si>
-    <t>Polyhydramnios</t>
-  </si>
-  <si>
-    <t>Intellectual disability</t>
-  </si>
-  <si>
-    <t>Involuntary movements</t>
-  </si>
-  <si>
     <t>Peripheral neuropathy</t>
   </si>
   <si>
@@ -1383,7 +1401,7 @@
     <t>Prolonged QT interval</t>
   </si>
   <si>
-    <t>Pancreatic cysts</t>
+    <t>Peritonitis</t>
   </si>
   <si>
     <t>Rectal prolapse</t>
@@ -1419,16 +1437,16 @@
     <t>Poikilocytosis</t>
   </si>
   <si>
-    <t>Lymphadenopathy</t>
+    <t>Lymphopenia</t>
   </si>
   <si>
     <t>Hyperammonemia</t>
   </si>
   <si>
-    <t>Postnatal growth retardation</t>
-  </si>
-  <si>
-    <t>Lethargy</t>
+    <t>Prolonged neonatal jaundice</t>
+  </si>
+  <si>
+    <t>Memory impairment</t>
   </si>
   <si>
     <t>Loss of ambulation</t>
@@ -1455,7 +1473,7 @@
     <t>Pulmonary arterial hypertension</t>
   </si>
   <si>
-    <t>Pancreatic fibrosis</t>
+    <t>Polysplenia</t>
   </si>
   <si>
     <t>Splenomegaly</t>
@@ -1491,16 +1509,13 @@
     <t>Prolonged bleeding time</t>
   </si>
   <si>
-    <t>Lymphopenia</t>
+    <t>Myelokathexis</t>
   </si>
   <si>
     <t>Hyperbilirubinemia</t>
   </si>
   <si>
-    <t>Premature birth</t>
-  </si>
-  <si>
-    <t>Memory impairment</t>
+    <t>Obsessive-compulsive behavior</t>
   </si>
   <si>
     <t>Motor stereotypy</t>
@@ -1527,7 +1542,7 @@
     <t>Pulmonary venous hypertension</t>
   </si>
   <si>
-    <t>Peritonitis</t>
+    <t>Protuberant abdomen</t>
   </si>
   <si>
     <t>Tracheoesophageal fistula</t>
@@ -1560,16 +1575,13 @@
     <t>Sideroblastic anemia</t>
   </si>
   <si>
-    <t>Myelokathexis</t>
+    <t>Neutropenia</t>
   </si>
   <si>
     <t>Hypercholesterolemia</t>
   </si>
   <si>
-    <t>Prolonged neonatal jaundice</t>
-  </si>
-  <si>
-    <t>Obsessive-compulsive behavior</t>
+    <t>Polydipsia</t>
   </si>
   <si>
     <t>Myoclonus</t>
@@ -1596,7 +1608,7 @@
     <t>Stroke</t>
   </si>
   <si>
-    <t>Polysplenia</t>
+    <t>Umbilical hernia</t>
   </si>
   <si>
     <t>Vomiting</t>
@@ -1629,13 +1641,13 @@
     <t>Stomatocytosis</t>
   </si>
   <si>
-    <t>Neutropenia</t>
+    <t>Panhypogammaglobulinemia</t>
   </si>
   <si>
     <t>Hyperglycemia</t>
   </si>
   <si>
-    <t>Polydipsia</t>
+    <t>Restrictive behavior</t>
   </si>
   <si>
     <t>Paraplegia</t>
@@ -1662,9 +1674,6 @@
     <t>Supraventricular arrhythmia</t>
   </si>
   <si>
-    <t>Protuberant abdomen</t>
-  </si>
-  <si>
     <t>Ureteropelvic junction obstruction</t>
   </si>
   <si>
@@ -1686,13 +1695,13 @@
     <t>Thrombocytopenia</t>
   </si>
   <si>
-    <t>Panhypogammaglobulinemia</t>
+    <t>Predominantly dermal neutrophilic infiltrate</t>
   </si>
   <si>
     <t>Hyperglycinemia</t>
   </si>
   <si>
-    <t>Restrictive behavior</t>
+    <t>Sleep disturbance</t>
   </si>
   <si>
     <t>Parkinsonism</t>
@@ -1731,13 +1740,13 @@
     <t>Proximal placement of thumb</t>
   </si>
   <si>
-    <t>Predominantly dermal neutrophilic infiltrate</t>
+    <t>Pyoderma gangrenosum</t>
   </si>
   <si>
     <t>Hyperinsulinemia</t>
   </si>
   <si>
-    <t>Sleep disturbance</t>
+    <t>Speech articulation difficulties</t>
   </si>
   <si>
     <t>Poor suck</t>
@@ -1761,9 +1770,6 @@
     <t>Tachycardia</t>
   </si>
   <si>
-    <t>Umbilical hernia</t>
-  </si>
-  <si>
     <t>Palmoplantar hyperkeratosis</t>
   </si>
   <si>
@@ -1776,15 +1782,12 @@
     <t>Short distal phalanx of finger</t>
   </si>
   <si>
-    <t>Pyoderma gangrenosum</t>
+    <t>Rectal abscess</t>
   </si>
   <si>
     <t>Hyperketonemia</t>
   </si>
   <si>
-    <t>Speech articulation difficulties</t>
-  </si>
-  <si>
     <t>Postural instability</t>
   </si>
   <si>
@@ -1812,7 +1815,7 @@
     <t>Short metacarpal</t>
   </si>
   <si>
-    <t>Rectal abscess</t>
+    <t>Recurrent bacterial infections</t>
   </si>
   <si>
     <t>Hypertriglyceridemia</t>
@@ -1845,7 +1848,7 @@
     <t>Short metatarsal</t>
   </si>
   <si>
-    <t>Recurrent bacterial infections</t>
+    <t>Recurrent enteroviral infections</t>
   </si>
   <si>
     <t>Hyperuricemia</t>
@@ -1875,7 +1878,7 @@
     <t>Short phalanx of finger</t>
   </si>
   <si>
-    <t>Recurrent enteroviral infections</t>
+    <t>Recurrent infections</t>
   </si>
   <si>
     <t>Hypoammonemia</t>
@@ -1905,7 +1908,7 @@
     <t>Split foot</t>
   </si>
   <si>
-    <t>Recurrent infections</t>
+    <t>Recurrent otitis media</t>
   </si>
   <si>
     <t>Hypoglycemia</t>
@@ -1935,7 +1938,7 @@
     <t>Split hand</t>
   </si>
   <si>
-    <t>Recurrent otitis media</t>
+    <t>Recurrent pneumonia</t>
   </si>
   <si>
     <t>Increased blood urea nitrogen</t>
@@ -1962,7 +1965,7 @@
     <t>Syndactyly</t>
   </si>
   <si>
-    <t>Recurrent pneumonia</t>
+    <t>Recurrent respiratory infections</t>
   </si>
   <si>
     <t>Increased serum pyruvate</t>
@@ -1989,7 +1992,7 @@
     <t>Synostosis of metacarpals/metatarsals</t>
   </si>
   <si>
-    <t>Recurrent respiratory infections</t>
+    <t>Recurrent sinusitis</t>
   </si>
   <si>
     <t>Ketonuria</t>
@@ -2016,7 +2019,7 @@
     <t>Talipes equinovalgus</t>
   </si>
   <si>
-    <t>Recurrent sinusitis</t>
+    <t>Reticulocytosis</t>
   </si>
   <si>
     <t>Lactic acidosis</t>
@@ -2040,7 +2043,7 @@
     <t>Talipes equinovarus</t>
   </si>
   <si>
-    <t>Reticulocytosis</t>
+    <t>Schistocytosis</t>
   </si>
   <si>
     <t>Metabolic acidosis</t>
@@ -2064,7 +2067,7 @@
     <t>Tapered finger</t>
   </si>
   <si>
-    <t>Schistocytosis</t>
+    <t>Seborrheic dermatitis</t>
   </si>
   <si>
     <t>Metabolic ketoacidosis</t>
@@ -2085,7 +2088,7 @@
     <t>Triphalangeal thumb</t>
   </si>
   <si>
-    <t>Seborrheic dermatitis</t>
+    <t>Verrucae</t>
   </si>
   <si>
     <t>Wide anterior fontanel</t>
@@ -2095,9 +2098,6 @@
   </si>
   <si>
     <t>Upper limb muscle hypertrophy</t>
-  </si>
-  <si>
-    <t>Verrucae</t>
   </si>
   <si>
     <t>Wide nose</t>
@@ -2857,1815 +2857,1799 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>62</v>
+        <v>135</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Y6" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Y9" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Z9" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AA9" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="2" t="s">
-        <v>242</v>
+      <c r="A10" s="3" t="s">
+        <v>243</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Y10" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Z10" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="W11" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="X11" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Y11" s="2" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Z11" s="2" t="s">
-        <v>257</v>
+        <v>295</v>
       </c>
       <c r="AA11" s="2" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="3" t="s">
-        <v>294</v>
+      <c r="A12" s="2" t="s">
+        <v>297</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>246</v>
+        <v>298</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="X12" s="2" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="Y12" s="2" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Z12" s="2" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="AA12" s="2" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="X13" s="2" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="Y13" s="2" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Z13" s="2" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="AA13" s="2" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="W14" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="X14" s="2" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="Y14" s="2" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="Z14" s="2" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="AA14" s="2" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>281</v>
+        <v>389</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>387</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="P15" s="2"/>
       <c r="Q15" s="3" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="W15" s="2" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="X15" s="2" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="Y15" s="2" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="Z15" s="2" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="AA15" s="2" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>283</v>
+        <v>413</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="W16" s="2" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="X16" s="2" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="Y16" s="2" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="Z16" s="2" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="AA16" s="2" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="W17" s="2" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="X17" s="2" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="Y17" s="2" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="Z17" s="2" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="AA17" s="2" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>161</v>
+        <v>454</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="W18" s="2" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="X18" s="2" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="Y18" s="2" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="Z18" s="2" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="AA18" s="2" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="W19" s="2" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="X19" s="2" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="Y19" s="2" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="Z19" s="2" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="AA19" s="2" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="2" t="s">
-        <v>493</v>
-      </c>
+      <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="W20" s="2" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="Y20" s="2" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="Z20" s="2" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="AA20" s="2" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="2" t="s">
-        <v>516</v>
-      </c>
+      <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="W21" s="2" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="Y21" s="2" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="Z21" s="2" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="AA21" s="2" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="B22" s="2" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>548</v>
-      </c>
+        <v>551</v>
+      </c>
+      <c r="M22" s="2"/>
       <c r="O22" s="2" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="U22" s="2"/>
       <c r="V22" s="2" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="W22" s="2" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="Y22" s="2" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="Z22" s="2" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="AA22" s="2" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="B23" s="2" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>565</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>480</v>
-      </c>
+        <v>568</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="O23" s="2" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="R23" s="2"/>
       <c r="S23" s="2" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="U23" s="2"/>
       <c r="V23" s="2" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="W23" s="2" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="Z23" s="2" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="AA23" s="2" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>581</v>
-      </c>
+        <v>583</v>
+      </c>
+      <c r="M24" s="2"/>
       <c r="Q24" s="2" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="R24" s="2"/>
       <c r="S24" s="2" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
       <c r="V24" s="2" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="W24" s="2" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="Z24" s="2" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="AA24" s="2" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="B25" s="2" t="s">
-        <v>588</v>
-      </c>
+      <c r="B25" s="2"/>
       <c r="C25" s="3" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>504</v>
-      </c>
+        <v>593</v>
+      </c>
+      <c r="J25" s="2"/>
       <c r="L25" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="R25" s="2"/>
       <c r="S25" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
       <c r="V25" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="W25" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="Z25" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AA25" s="2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="C26" s="2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="M26" s="2"/>
       <c r="Q26" s="2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="R26" s="2"/>
       <c r="S26" s="2" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
       <c r="V26" s="2" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="W26" s="2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="Z26" s="2" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AA26" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="C27" s="2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="M27" s="2"/>
       <c r="Q27" s="3" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="R27" s="2"/>
       <c r="S27" s="2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
       <c r="W27" s="2" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="Z27" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AA27" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="M28" s="2"/>
       <c r="Q28" s="2" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="R28" s="2"/>
       <c r="S28" s="2" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
       <c r="V28" s="2"/>
       <c r="W28" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="Z28" s="2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AA28" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="C29" s="3" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="M29" s="2"/>
       <c r="Q29" s="3" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="R29" s="2"/>
       <c r="S29" s="2" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
       <c r="V29" s="2"/>
       <c r="W29" s="2" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="Z29" s="2" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AA29" s="2" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="B30" s="2"/>
       <c r="C30" s="3" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="Q30" s="3" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="R30" s="2"/>
       <c r="S30" s="2" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
       <c r="V30" s="2"/>
       <c r="W30" s="2" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="Z30" s="2" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AA30" s="2" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="B31" s="2"/>
       <c r="C31" s="3" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="R31" s="2"/>
       <c r="S31" s="2" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
       <c r="V31" s="2"/>
       <c r="W31" s="2" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="Z31" s="2" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="AA31" s="2" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="C32" s="3" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
       <c r="V32" s="2"/>
       <c r="W32" s="2" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="Z32" s="2" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AA32" s="2" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="D33" s="2" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
       <c r="V33" s="2"/>
       <c r="W33" s="2" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="Z33" s="2" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AA33" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="Q34" s="3" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
       <c r="V34" s="2"/>
       <c r="W34" s="2" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="Z34" s="2" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="AA34" s="2" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="C35" s="2"/>
       <c r="F35" s="2" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
       <c r="V35" s="2"/>
       <c r="W35" s="2" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="Z35" s="2" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AA35" s="1"/>
     </row>
@@ -4673,17 +4657,15 @@
       <c r="C36" s="3"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>692</v>
-      </c>
-      <c r="Z36" s="2" t="s">
         <v>693</v>
       </c>
+      <c r="Z36" s="2"/>
       <c r="AA36" s="1"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
